--- a/Code/Results/Cases/Case_5_51/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_51/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,25 +409,31 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.457472943247126</v>
+        <v>2.813614290249063</v>
       </c>
       <c r="C2">
-        <v>0.7121089132716918</v>
+        <v>0.6858093015542579</v>
       </c>
       <c r="D2">
-        <v>0.04583688333002911</v>
+        <v>0.03310401948256825</v>
       </c>
       <c r="E2">
-        <v>0.2716146139275111</v>
+        <v>0.1737474601569318</v>
       </c>
       <c r="F2">
-        <v>2.474520699295681</v>
+        <v>2.154110490779345</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,39 +442,45 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.423782395001908</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7219163686672658</v>
+        <v>0.7868721404494465</v>
       </c>
       <c r="L2">
-        <v>0.4942387097954537</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>1.038724330240179</v>
+      </c>
+      <c r="N2">
+        <v>1.235992967166339</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.115512103157073</v>
+        <v>2.424018351588188</v>
       </c>
       <c r="C3">
-        <v>0.6119835708657035</v>
+        <v>0.5895799751785091</v>
       </c>
       <c r="D3">
-        <v>0.04479455917594777</v>
+        <v>0.03365617317387404</v>
       </c>
       <c r="E3">
-        <v>0.2332266693642069</v>
+        <v>0.1501080500241585</v>
       </c>
       <c r="F3">
-        <v>2.197200078159796</v>
+        <v>1.921278162089621</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -477,39 +489,45 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.287281121536239</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6211203652578732</v>
+        <v>0.6771788596928516</v>
       </c>
       <c r="L3">
-        <v>0.4241082421634417</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.8940092722261141</v>
+      </c>
+      <c r="N3">
+        <v>1.23572623334735</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.90891978302426</v>
+        <v>2.189063877427088</v>
       </c>
       <c r="C4">
-        <v>0.5516061006483994</v>
+        <v>0.5315093116926732</v>
       </c>
       <c r="D4">
-        <v>0.04425441974962752</v>
+        <v>0.03407437799533852</v>
       </c>
       <c r="E4">
-        <v>0.2102294708448227</v>
+        <v>0.1359864847569341</v>
       </c>
       <c r="F4">
-        <v>2.032407556733659</v>
+        <v>1.783107435706313</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -518,39 +536,45 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.206656238457313</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5602558306741301</v>
+        <v>0.6110126104661902</v>
       </c>
       <c r="L4">
-        <v>0.381999860352046</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.8069510226715479</v>
+      </c>
+      <c r="N4">
+        <v>1.23773438263818</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.825446450006666</v>
+        <v>2.094233744721748</v>
       </c>
       <c r="C5">
-        <v>0.5272335374448005</v>
+        <v>0.5080592620444122</v>
       </c>
       <c r="D5">
-        <v>0.04405669479279695</v>
+        <v>0.03426291463613396</v>
       </c>
       <c r="E5">
-        <v>0.2009809833405853</v>
+        <v>0.1303172427216417</v>
       </c>
       <c r="F5">
-        <v>1.966468465356954</v>
+        <v>1.727870751751169</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -559,39 +583,45 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.174512088591456</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5356697736776326</v>
+        <v>0.5843031071850291</v>
       </c>
       <c r="L5">
-        <v>0.365043716132547</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.7718609657149429</v>
+      </c>
+      <c r="N5">
+        <v>1.239057425299464</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.811625276515628</v>
+        <v>2.078538309158432</v>
       </c>
       <c r="C6">
-        <v>0.5231992611160479</v>
+        <v>0.5041772142398884</v>
       </c>
       <c r="D6">
-        <v>0.04402514054041262</v>
+        <v>0.03429526629218671</v>
       </c>
       <c r="E6">
-        <v>0.1994521348606781</v>
+        <v>0.1293806592910727</v>
       </c>
       <c r="F6">
-        <v>1.955588227465341</v>
+        <v>1.718759584782248</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -600,39 +630,45 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.169215044630931</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.531599246932096</v>
+        <v>0.5798821206476887</v>
       </c>
       <c r="L6">
-        <v>0.3622394577416941</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.7660558671607589</v>
+      </c>
+      <c r="N6">
+        <v>1.239306459406265</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.907791305600711</v>
+        <v>2.187781452289244</v>
       </c>
       <c r="C7">
-        <v>0.5512765214678836</v>
+        <v>0.531192240029867</v>
       </c>
       <c r="D7">
-        <v>0.04425166591251184</v>
+        <v>0.03407684955075041</v>
       </c>
       <c r="E7">
-        <v>0.2101042705816454</v>
+        <v>0.1359096983841681</v>
       </c>
       <c r="F7">
-        <v>2.031513564021353</v>
+        <v>1.782358335967857</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -641,39 +677,45 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.206219965154943</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5599234281455736</v>
+        <v>0.6106514249635211</v>
       </c>
       <c r="L7">
-        <v>0.3817704054868898</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.8064763010221085</v>
+      </c>
+      <c r="N7">
+        <v>1.237750234092744</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.338780140916413</v>
+        <v>2.678299527207116</v>
       </c>
       <c r="C8">
-        <v>0.677328968550114</v>
+        <v>0.6523929758560598</v>
       </c>
       <c r="D8">
-        <v>0.04545503394977857</v>
+        <v>0.03327682315924108</v>
       </c>
       <c r="E8">
-        <v>0.2582461212361196</v>
+        <v>0.1655064783789868</v>
       </c>
       <c r="F8">
-        <v>2.377658906393492</v>
+        <v>2.072750402846339</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -682,39 +724,45 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.375998040430844</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6869232980835775</v>
+        <v>0.7487756844894875</v>
       </c>
       <c r="L8">
-        <v>0.4698372719758126</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.988412354167238</v>
+      </c>
+      <c r="N8">
+        <v>1.235424017355527</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.217536383508616</v>
+        <v>3.681870409963665</v>
       </c>
       <c r="C9">
-        <v>0.9355394344503054</v>
+        <v>0.9001985262109429</v>
       </c>
       <c r="D9">
-        <v>0.04874723152988736</v>
+        <v>0.03242908538794254</v>
       </c>
       <c r="E9">
-        <v>0.3582791403747692</v>
+        <v>0.2273506837654224</v>
       </c>
       <c r="F9">
-        <v>3.10827573971045</v>
+        <v>2.687060386246316</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -723,39 +771,45 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.738812611297831</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.9461923183123133</v>
+        <v>1.031300902958463</v>
       </c>
       <c r="L9">
-        <v>0.6519349919262183</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1.362757916605759</v>
+      </c>
+      <c r="N9">
+        <v>1.250192855345645</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.894600769513147</v>
+        <v>4.457119945221507</v>
       </c>
       <c r="C10">
-        <v>1.135660200343011</v>
+        <v>1.091763934795154</v>
       </c>
       <c r="D10">
-        <v>0.05196217708464701</v>
+        <v>0.03239734757044133</v>
       </c>
       <c r="E10">
-        <v>0.4369446964032377</v>
+        <v>0.2762067729924453</v>
       </c>
       <c r="F10">
-        <v>3.689948874324415</v>
+        <v>3.176627879747713</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -764,39 +818,45 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.030918950466955</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.146273400747688</v>
+        <v>1.249573824903095</v>
       </c>
       <c r="L10">
-        <v>0.7944261776383215</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1.653780043245447</v>
+      </c>
+      <c r="N10">
+        <v>1.27616399683248</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.21237908132855</v>
+        <v>4.821345516602207</v>
       </c>
       <c r="C11">
-        <v>1.229954897049993</v>
+        <v>1.181860322474563</v>
       </c>
       <c r="D11">
-        <v>0.05366002318795182</v>
+        <v>0.03255292052096692</v>
       </c>
       <c r="E11">
-        <v>0.4743247845892853</v>
+        <v>0.2994694508785116</v>
       </c>
       <c r="F11">
-        <v>3.967861185504347</v>
+        <v>3.410527534846722</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -805,39 +865,45 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.17130862887538</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.240281153921657</v>
+        <v>1.352146030309882</v>
       </c>
       <c r="L11">
-        <v>0.8619412214378173</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1.791048096705538</v>
+      </c>
+      <c r="N11">
+        <v>1.292148944859392</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.334412265335686</v>
+        <v>4.961256498425087</v>
       </c>
       <c r="C12">
-        <v>1.266229911118046</v>
+        <v>1.216489717717707</v>
       </c>
       <c r="D12">
-        <v>0.05434317454607651</v>
+        <v>0.03264054509236658</v>
       </c>
       <c r="E12">
-        <v>0.4887562909493468</v>
+        <v>0.3084570267311122</v>
       </c>
       <c r="F12">
-        <v>4.075366089942776</v>
+        <v>3.500993179518531</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -846,39 +912,45 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.225745250975919</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.276399395679505</v>
+        <v>1.391552675371301</v>
       </c>
       <c r="L12">
-        <v>0.887975554852801</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1.843868599654897</v>
+      </c>
+      <c r="N12">
+        <v>1.298889965145037</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.308049582225522</v>
+        <v>4.931030103158776</v>
       </c>
       <c r="C13">
-        <v>1.258390433056718</v>
+        <v>1.209007352352842</v>
       </c>
       <c r="D13">
-        <v>0.05419414309395165</v>
+        <v>0.03262032027687312</v>
       </c>
       <c r="E13">
-        <v>0.485635072490048</v>
+        <v>0.306512934315478</v>
       </c>
       <c r="F13">
-        <v>4.052105994401558</v>
+        <v>3.481420607768143</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -887,39 +959,45 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.213961246268312</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.268595991172361</v>
+        <v>1.38303898795759</v>
       </c>
       <c r="L13">
-        <v>0.8823463600757719</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1.832452958683447</v>
+      </c>
+      <c r="N13">
+        <v>1.297406018263729</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.222382964829137</v>
+        <v>4.832814225173081</v>
       </c>
       <c r="C14">
-        <v>1.232927260450367</v>
+        <v>1.184698495527186</v>
       </c>
       <c r="D14">
-        <v>0.05371537985470098</v>
+        <v>0.03255952680387608</v>
       </c>
       <c r="E14">
-        <v>0.4755062330646567</v>
+        <v>0.3002051017914411</v>
       </c>
       <c r="F14">
-        <v>3.976658050822323</v>
+        <v>3.417930480258946</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -928,39 +1006,45 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.17576040090772</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.243241644399916</v>
+        <v>1.35537613336956</v>
       </c>
       <c r="L14">
-        <v>0.8640731961365304</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1.795375964794289</v>
+      </c>
+      <c r="N14">
+        <v>1.292689191955219</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.170140208337955</v>
+        <v>4.772923360992536</v>
       </c>
       <c r="C15">
-        <v>1.217407481474766</v>
+        <v>1.169878104629333</v>
       </c>
       <c r="D15">
-        <v>0.0534275694492834</v>
+        <v>0.03252616800776664</v>
       </c>
       <c r="E15">
-        <v>0.4693395697927869</v>
+        <v>0.29636556925918</v>
       </c>
       <c r="F15">
-        <v>3.930750476994632</v>
+        <v>3.379296617054933</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -969,39 +1053,45 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.152533512790086</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.22778194761581</v>
+        <v>1.338508402798226</v>
       </c>
       <c r="L15">
-        <v>0.8529439004814634</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1.772779112749078</v>
+      </c>
+      <c r="N15">
+        <v>1.289892433606298</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.874053817290871</v>
+        <v>4.433576190646477</v>
       </c>
       <c r="C16">
-        <v>1.129571494521485</v>
+        <v>1.085942488406289</v>
       </c>
       <c r="D16">
-        <v>0.0518564737075522</v>
+        <v>0.0323909491141734</v>
       </c>
       <c r="E16">
-        <v>0.4345377621768876</v>
+        <v>0.2747097815889603</v>
       </c>
       <c r="F16">
-        <v>3.672083238993764</v>
+        <v>3.161590471872131</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1010,39 +1100,45 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.021911165220132</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.140197268661112</v>
+        <v>1.242944121573501</v>
       </c>
       <c r="L16">
-        <v>0.7900747047909462</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.644918797907863</v>
+      </c>
+      <c r="N16">
+        <v>1.275210492343149</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.695111800670077</v>
+        <v>4.228574390443896</v>
       </c>
       <c r="C17">
-        <v>1.076587112647786</v>
+        <v>1.035264826871469</v>
       </c>
       <c r="D17">
-        <v>0.05095712353165283</v>
+        <v>0.03235434474903087</v>
       </c>
       <c r="E17">
-        <v>0.41362756481427</v>
+        <v>0.2617098538566509</v>
       </c>
       <c r="F17">
-        <v>3.51704069384715</v>
+        <v>3.031090063837866</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1051,39 +1147,45 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.943830602988015</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.087291999904735</v>
+        <v>1.185220335114678</v>
       </c>
       <c r="L17">
-        <v>0.7522498118108984</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.567822496701226</v>
+      </c>
+      <c r="N17">
+        <v>1.267330323490512</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.593089508917842</v>
+        <v>4.111728866884278</v>
       </c>
       <c r="C18">
-        <v>1.04641182593781</v>
+        <v>1.006388303177062</v>
       </c>
       <c r="D18">
-        <v>0.05046155190686363</v>
+        <v>0.03234899745496733</v>
       </c>
       <c r="E18">
-        <v>0.4017474302152664</v>
+        <v>0.2543283172422264</v>
       </c>
       <c r="F18">
-        <v>3.429092682978109</v>
+        <v>2.957063927875311</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1092,39 +1194,45 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.899614220872763</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.057137565946519</v>
+        <v>1.152321400476566</v>
       </c>
       <c r="L18">
-        <v>0.730742085500502</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.523928701902335</v>
+      </c>
+      <c r="N18">
+        <v>1.263184398692374</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.558693032565373</v>
+        <v>4.072340981382638</v>
       </c>
       <c r="C19">
-        <v>1.036243745916863</v>
+        <v>0.9966554683180391</v>
       </c>
       <c r="D19">
-        <v>0.05029731260830772</v>
+        <v>0.03234976660944255</v>
       </c>
       <c r="E19">
-        <v>0.3977489326957979</v>
+        <v>0.2518446713370608</v>
       </c>
       <c r="F19">
-        <v>3.399516134092494</v>
+        <v>2.932169632727039</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1133,39 +1241,45 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.884756994383466</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.046972572474758</v>
+        <v>1.14123168334919</v>
       </c>
       <c r="L19">
-        <v>0.7235003252830268</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.509140426328159</v>
+      </c>
+      <c r="N19">
+        <v>1.261844579442482</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.714065331587676</v>
+        <v>4.250284651710899</v>
       </c>
       <c r="C20">
-        <v>1.082195683042869</v>
+        <v>1.040630817630785</v>
       </c>
       <c r="D20">
-        <v>0.05105057134299074</v>
+        <v>0.03235658726675794</v>
       </c>
       <c r="E20">
-        <v>0.4158379752279728</v>
+        <v>0.2630836188576211</v>
       </c>
       <c r="F20">
-        <v>3.533415733799529</v>
+        <v>3.044873097544638</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1174,39 +1288,45 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.95206932891297</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.092894762742347</v>
+        <v>1.191333216983466</v>
       </c>
       <c r="L20">
-        <v>0.7562501141427873</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.575982026847157</v>
+      </c>
+      <c r="N20">
+        <v>1.268128580069188</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.247496697212171</v>
+        <v>4.861605857916175</v>
       </c>
       <c r="C21">
-        <v>1.240390132664572</v>
+        <v>1.191823939309813</v>
       </c>
       <c r="D21">
-        <v>0.05385485624406527</v>
+        <v>0.03257656621492799</v>
       </c>
       <c r="E21">
-        <v>0.4784733988032741</v>
+        <v>0.302052763280237</v>
       </c>
       <c r="F21">
-        <v>3.998754360904229</v>
+        <v>3.436525218370974</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1215,39 +1335,45 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.186944629256345</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.250673941901681</v>
+        <v>1.363485240417646</v>
       </c>
       <c r="L21">
-        <v>0.8694270614325177</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.806242366365638</v>
+      </c>
+      <c r="N21">
+        <v>1.294055197556929</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.60619091336946</v>
+        <v>5.272908050938781</v>
       </c>
       <c r="C22">
-        <v>1.347146862904765</v>
+        <v>1.293671982262595</v>
       </c>
       <c r="D22">
-        <v>0.05592586906723795</v>
+        <v>0.03289026728929301</v>
       </c>
       <c r="E22">
-        <v>0.5210489187259029</v>
+        <v>0.3285790738064946</v>
       </c>
       <c r="F22">
-        <v>4.316292895635968</v>
+        <v>3.703690991546154</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1256,39 +1382,45 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.347990173489322</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.356873052429748</v>
+        <v>1.479342871161705</v>
       </c>
       <c r="L22">
-        <v>0.9461695446727418</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.961708260316954</v>
+      </c>
+      <c r="N22">
+        <v>1.315060713030064</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.413718640600905</v>
+        <v>5.052190761997565</v>
       </c>
       <c r="C23">
-        <v>1.289823374781065</v>
+        <v>1.239003459823721</v>
       </c>
       <c r="D23">
-        <v>0.05479630677778147</v>
+        <v>0.03270566945841935</v>
       </c>
       <c r="E23">
-        <v>0.49815773248082</v>
+        <v>0.3143137194904284</v>
       </c>
       <c r="F23">
-        <v>4.145457272663322</v>
+        <v>3.559969324654531</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1297,39 +1429,45 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.261274257186514</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.299876981561127</v>
+        <v>1.417166504995961</v>
       </c>
       <c r="L23">
-        <v>0.9049264566549056</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.878226109998749</v>
+      </c>
+      <c r="N23">
+        <v>1.303445173305889</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.705493802036472</v>
+        <v>4.240466311954435</v>
       </c>
       <c r="C24">
-        <v>1.07965916435549</v>
+        <v>1.038204053700412</v>
       </c>
       <c r="D24">
-        <v>0.05100825715796731</v>
+        <v>0.03235552484418847</v>
       </c>
       <c r="E24">
-        <v>0.4148382116465896</v>
+        <v>0.2624622543673851</v>
       </c>
       <c r="F24">
-        <v>3.526008903672931</v>
+        <v>3.038638693167059</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1338,39 +1476,45 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.948342518396487</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.090360945683813</v>
+        <v>1.188568695257885</v>
       </c>
       <c r="L24">
-        <v>0.7544408410530039</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.572291774385519</v>
+      </c>
+      <c r="N24">
+        <v>1.267766497158007</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.975171976369609</v>
+        <v>3.404721020325951</v>
       </c>
       <c r="C25">
-        <v>0.8641563125596576</v>
+        <v>0.8317591315474999</v>
       </c>
       <c r="D25">
-        <v>0.04773535035080556</v>
+        <v>0.03256699639485205</v>
       </c>
       <c r="E25">
-        <v>0.3304503172087294</v>
+        <v>0.210108384920801</v>
       </c>
       <c r="F25">
-        <v>2.903811178266153</v>
+        <v>2.515031937817326</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1379,18 +1523,24 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.636765220351563</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8746393405041886</v>
+        <v>0.9532789267310733</v>
       </c>
       <c r="L25">
-        <v>0.6013847647834609</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>1.259103446647217</v>
+      </c>
+      <c r="N25">
+        <v>1.243810309712003</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_51/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_51/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.813614290249063</v>
+        <v>1.470526460250284</v>
       </c>
       <c r="C2">
-        <v>0.6858093015542579</v>
+        <v>0.157333531608927</v>
       </c>
       <c r="D2">
-        <v>0.03310401948256825</v>
+        <v>0.05696735443317635</v>
       </c>
       <c r="E2">
-        <v>0.1737474601569318</v>
+        <v>0.03663670548891851</v>
       </c>
       <c r="F2">
-        <v>2.154110490779345</v>
+        <v>1.425363051084261</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.9554423638708585</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7868721404494465</v>
+        <v>1.453506520363476</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2912045436687833</v>
       </c>
       <c r="M2">
-        <v>1.038724330240179</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.235992967166339</v>
+        <v>1.446719646000773</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.424018351588188</v>
+        <v>1.283992088387919</v>
       </c>
       <c r="C3">
-        <v>0.5895799751785091</v>
+        <v>0.1359504005421712</v>
       </c>
       <c r="D3">
-        <v>0.03365617317387404</v>
+        <v>0.05829137016038999</v>
       </c>
       <c r="E3">
-        <v>0.1501080500241585</v>
+        <v>0.03392275341979811</v>
       </c>
       <c r="F3">
-        <v>1.921278162089621</v>
+        <v>1.336398398793222</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.9202914506798692</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6771788596928516</v>
+        <v>1.263021550589201</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2576877781634295</v>
       </c>
       <c r="M3">
-        <v>0.8940092722261141</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.23572623334735</v>
+        <v>1.47912657460521</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.189063877427088</v>
+        <v>1.170932624432396</v>
       </c>
       <c r="C4">
-        <v>0.5315093116926732</v>
+        <v>0.1229606998229826</v>
       </c>
       <c r="D4">
-        <v>0.03407437799533852</v>
+        <v>0.05911082630610487</v>
       </c>
       <c r="E4">
-        <v>0.1359864847569341</v>
+        <v>0.03230266329182285</v>
       </c>
       <c r="F4">
-        <v>1.783107435706313</v>
+        <v>1.284129564046793</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.9002277679618302</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6110126104661902</v>
+        <v>1.147505039470246</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2374802880871698</v>
       </c>
       <c r="M4">
-        <v>0.8069510226715479</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.23773438263818</v>
+        <v>1.500726277156105</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.094233744721748</v>
+        <v>1.125189480388684</v>
       </c>
       <c r="C5">
-        <v>0.5080592620444122</v>
+        <v>0.1176965770898448</v>
       </c>
       <c r="D5">
-        <v>0.03426291463613396</v>
+        <v>0.05944650679507646</v>
       </c>
       <c r="E5">
-        <v>0.1303172427216417</v>
+        <v>0.03165336086278892</v>
       </c>
       <c r="F5">
-        <v>1.727870751751169</v>
+        <v>1.263381412554537</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.8924111608352234</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5843031071850291</v>
+        <v>1.100750143530519</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2293302373602444</v>
       </c>
       <c r="M5">
-        <v>0.7718609657149429</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.239057425299464</v>
+        <v>1.509940189119718</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.078538309158432</v>
+        <v>1.117612619024754</v>
       </c>
       <c r="C6">
-        <v>0.5041772142398884</v>
+        <v>0.1168240794788602</v>
       </c>
       <c r="D6">
-        <v>0.03429526629218671</v>
+        <v>0.05950235492409561</v>
       </c>
       <c r="E6">
-        <v>0.1293806592910727</v>
+        <v>0.03154618202931481</v>
       </c>
       <c r="F6">
-        <v>1.718759584782248</v>
+        <v>1.259968389404762</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.8911343021759279</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5798821206476887</v>
+        <v>1.09300457588256</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2279817927309011</v>
       </c>
       <c r="M6">
-        <v>0.7660558671607589</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.239306459406265</v>
+        <v>1.511494578123738</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.187781452289244</v>
+        <v>1.170314434506651</v>
       </c>
       <c r="C7">
-        <v>0.531192240029867</v>
+        <v>0.1228895948590747</v>
       </c>
       <c r="D7">
-        <v>0.03407684955075041</v>
+        <v>0.05911534619772674</v>
       </c>
       <c r="E7">
-        <v>0.1359096983841681</v>
+        <v>0.03229386339666007</v>
       </c>
       <c r="F7">
-        <v>1.782358335967857</v>
+        <v>1.28384756464385</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.90012092351013</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6106514249635211</v>
+        <v>1.146873250455911</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2373700421523353</v>
       </c>
       <c r="M7">
-        <v>0.8064763010221085</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1.237750234092744</v>
+        <v>1.500848892032153</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.678299527207116</v>
+        <v>1.405878046381616</v>
       </c>
       <c r="C8">
-        <v>0.6523929758560598</v>
+        <v>0.1499280112461747</v>
       </c>
       <c r="D8">
-        <v>0.03327682315924108</v>
+        <v>0.05742259098376934</v>
       </c>
       <c r="E8">
-        <v>0.1655064783789868</v>
+        <v>0.03569086630290919</v>
       </c>
       <c r="F8">
-        <v>2.072750402846339</v>
+        <v>1.394173824017969</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.9429930318911417</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.7487756844894875</v>
+        <v>1.387500824429253</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2795652468795566</v>
       </c>
       <c r="M8">
-        <v>0.988412354167238</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1.235424017355527</v>
+        <v>1.45753036859287</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.681870409963665</v>
+        <v>1.881520237409433</v>
       </c>
       <c r="C9">
-        <v>0.9001985262109429</v>
+        <v>0.2043446305059433</v>
       </c>
       <c r="D9">
-        <v>0.03242908538794254</v>
+        <v>0.0541497338397825</v>
       </c>
       <c r="E9">
-        <v>0.2273506837654224</v>
+        <v>0.04275584524956777</v>
       </c>
       <c r="F9">
-        <v>2.687060386246316</v>
+        <v>1.631196149766467</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1.040215607665878</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.031300902958463</v>
+        <v>1.872952540386535</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3656946298070665</v>
       </c>
       <c r="M9">
-        <v>1.362757916605759</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>1.250192855345645</v>
+        <v>1.386865088946465</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.457119945221507</v>
+        <v>2.242392061711769</v>
       </c>
       <c r="C10">
-        <v>1.091763934795154</v>
+        <v>0.2456124281654013</v>
       </c>
       <c r="D10">
-        <v>0.03239734757044133</v>
+        <v>0.05176667489199716</v>
       </c>
       <c r="E10">
-        <v>0.2762067729924453</v>
+        <v>0.04824721173240576</v>
       </c>
       <c r="F10">
-        <v>3.176627879747713</v>
+        <v>1.820942440883798</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1.121324375262446</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.249573824903095</v>
+        <v>2.241154306096888</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.4316955603556352</v>
       </c>
       <c r="M10">
-        <v>1.653780043245447</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1.27616399683248</v>
+        <v>1.344832748275394</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.821345516602207</v>
+        <v>2.409795674780923</v>
       </c>
       <c r="C11">
-        <v>1.181860322474563</v>
+        <v>0.2647746375460116</v>
       </c>
       <c r="D11">
-        <v>0.03255292052096692</v>
+        <v>0.0506857725041705</v>
       </c>
       <c r="E11">
-        <v>0.2994694508785116</v>
+        <v>0.05082405522853861</v>
       </c>
       <c r="F11">
-        <v>3.410527534846722</v>
+        <v>1.911391537177394</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1.160734422293729</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.352146030309882</v>
+        <v>2.411968823404663</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.4624738563601056</v>
       </c>
       <c r="M11">
-        <v>1.791048096705538</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1.292148944859392</v>
+        <v>1.328149606343089</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.961256498425087</v>
+        <v>2.473722237377558</v>
       </c>
       <c r="C12">
-        <v>1.216489717717707</v>
+        <v>0.2720969183580024</v>
       </c>
       <c r="D12">
-        <v>0.03264054509236658</v>
+        <v>0.05027680641132548</v>
       </c>
       <c r="E12">
-        <v>0.3084570267311122</v>
+        <v>0.05181238732016169</v>
       </c>
       <c r="F12">
-        <v>3.500993179518531</v>
+        <v>1.946304730412024</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1.176057238920237</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.391552675371301</v>
+        <v>2.477202708385676</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.4742520621248758</v>
       </c>
       <c r="M12">
-        <v>1.843868599654897</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>1.298889965145037</v>
+        <v>1.322209968533684</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.931030103158776</v>
+        <v>2.459929578976357</v>
       </c>
       <c r="C13">
-        <v>1.209007352352842</v>
+        <v>0.270516830051406</v>
       </c>
       <c r="D13">
-        <v>0.03262032027687312</v>
+        <v>0.05036487074884555</v>
       </c>
       <c r="E13">
-        <v>0.306512934315478</v>
+        <v>0.05159895431978967</v>
       </c>
       <c r="F13">
-        <v>3.481420607768143</v>
+        <v>1.938754952223093</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1.172738807097957</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.38303898795759</v>
+        <v>2.463127716507529</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.4717096894347463</v>
       </c>
       <c r="M13">
-        <v>1.832452958683447</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1.297406018263729</v>
+        <v>1.323471902764823</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.832814225173081</v>
+        <v>2.415043825259374</v>
       </c>
       <c r="C14">
-        <v>1.184698495527186</v>
+        <v>0.2653756629924686</v>
       </c>
       <c r="D14">
-        <v>0.03255952680387608</v>
+        <v>0.05065212023685461</v>
       </c>
       <c r="E14">
-        <v>0.3002051017914411</v>
+        <v>0.05090510733197107</v>
       </c>
       <c r="F14">
-        <v>3.417930480258946</v>
+        <v>1.914250185389974</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1.161986812362969</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.35537613336956</v>
+        <v>2.417324184889225</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.4634402995288838</v>
       </c>
       <c r="M14">
-        <v>1.795375964794289</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>1.292689191955219</v>
+        <v>1.32765320830886</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.772923360992536</v>
+        <v>2.387621747338926</v>
       </c>
       <c r="C15">
-        <v>1.169878104629333</v>
+        <v>0.2622354547462322</v>
       </c>
       <c r="D15">
-        <v>0.03252616800776664</v>
+        <v>0.05082811108670171</v>
       </c>
       <c r="E15">
-        <v>0.29636556925918</v>
+        <v>0.05048177644174245</v>
       </c>
       <c r="F15">
-        <v>3.379296617054933</v>
+        <v>1.899328656338426</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1.155454059072284</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.338508402798226</v>
+        <v>2.389342132834003</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.4583915547832618</v>
       </c>
       <c r="M15">
-        <v>1.772779112749078</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1.289892433606298</v>
+        <v>1.330264452731186</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.433576190646477</v>
+        <v>2.2315227599168</v>
       </c>
       <c r="C16">
-        <v>1.085942488406289</v>
+        <v>0.2443687969963975</v>
       </c>
       <c r="D16">
-        <v>0.0323909491141734</v>
+        <v>0.0518373688549687</v>
       </c>
       <c r="E16">
-        <v>0.2747097815889603</v>
+        <v>0.04808049520262259</v>
       </c>
       <c r="F16">
-        <v>3.161590471872131</v>
+        <v>1.815120188094227</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1.118802548455847</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.242944121573501</v>
+        <v>2.230064021396856</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.4297005258956261</v>
       </c>
       <c r="M16">
-        <v>1.644918797907863</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>1.275210492343149</v>
+        <v>1.3459743608895</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.228574390443896</v>
+        <v>2.136637866134492</v>
       </c>
       <c r="C17">
-        <v>1.035264826871469</v>
+        <v>0.2335146790860563</v>
       </c>
       <c r="D17">
-        <v>0.03235434474903087</v>
+        <v>0.05245724896665749</v>
       </c>
       <c r="E17">
-        <v>0.2617098538566509</v>
+        <v>0.04662839311898281</v>
       </c>
       <c r="F17">
-        <v>3.031090063837866</v>
+        <v>1.764565714898879</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1.096987431364852</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.185220335114678</v>
+        <v>2.133251597520683</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.4123026860088004</v>
       </c>
       <c r="M17">
-        <v>1.567822496701226</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1.267330323490512</v>
+        <v>1.35625485180563</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.111728866884278</v>
+        <v>2.082363202000067</v>
       </c>
       <c r="C18">
-        <v>1.006388303177062</v>
+        <v>0.2273076632738622</v>
       </c>
       <c r="D18">
-        <v>0.03234899745496733</v>
+        <v>0.05281409153226058</v>
       </c>
       <c r="E18">
-        <v>0.2543283172422264</v>
+        <v>0.04580052042388161</v>
       </c>
       <c r="F18">
-        <v>2.957063927875311</v>
+        <v>1.735872667322326</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1.084674052693785</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.152321400476566</v>
+        <v>2.077875156851974</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.4023659345951813</v>
       </c>
       <c r="M18">
-        <v>1.523928701902335</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1.263184398692374</v>
+        <v>1.362395563008491</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.072340981382638</v>
+        <v>2.064036386111127</v>
       </c>
       <c r="C19">
-        <v>0.9966554683180391</v>
+        <v>0.2252119668801669</v>
       </c>
       <c r="D19">
-        <v>0.03234976660944255</v>
+        <v>0.05293496779960982</v>
       </c>
       <c r="E19">
-        <v>0.2518446713370608</v>
+        <v>0.04552144222559562</v>
       </c>
       <c r="F19">
-        <v>2.932169632727039</v>
+        <v>1.726221778739372</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1.080544071098743</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.14123168334919</v>
+        <v>2.059176347014784</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.3990131229703877</v>
       </c>
       <c r="M19">
-        <v>1.509140426328159</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1.261844579442482</v>
+        <v>1.364513009530143</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.250284651710899</v>
+        <v>2.146706937733711</v>
       </c>
       <c r="C20">
-        <v>1.040630817630785</v>
+        <v>0.2346663249365974</v>
       </c>
       <c r="D20">
-        <v>0.03235658726675794</v>
+        <v>0.05239123099980958</v>
       </c>
       <c r="E20">
-        <v>0.2630836188576211</v>
+        <v>0.04678220400718303</v>
       </c>
       <c r="F20">
-        <v>3.044873097544638</v>
+        <v>1.769907054870501</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1.099285197906966</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.191333216983466</v>
+        <v>2.14352511284963</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.4141473663259347</v>
       </c>
       <c r="M20">
-        <v>1.575982026847157</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>1.268128580069188</v>
+        <v>1.355136725833262</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.861605857916175</v>
+        <v>2.42821277668952</v>
       </c>
       <c r="C21">
-        <v>1.191823939309813</v>
+        <v>0.266883873275404</v>
       </c>
       <c r="D21">
-        <v>0.03257656621492799</v>
+        <v>0.05056773948100712</v>
       </c>
       <c r="E21">
-        <v>0.302052763280237</v>
+        <v>0.05110855658577407</v>
       </c>
       <c r="F21">
-        <v>3.436525218370974</v>
+        <v>1.921429287251726</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1.165133784111163</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.363485240417646</v>
+        <v>2.430762244115186</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.4658657539632713</v>
       </c>
       <c r="M21">
-        <v>1.806242366365638</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>1.294055197556929</v>
+        <v>1.326414569343711</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.272908050938781</v>
+        <v>2.615344917026903</v>
       </c>
       <c r="C22">
-        <v>1.293671982262595</v>
+        <v>0.2883298199047601</v>
       </c>
       <c r="D22">
-        <v>0.03289026728929301</v>
+        <v>0.04937796531557126</v>
       </c>
       <c r="E22">
-        <v>0.3285790738064946</v>
+        <v>0.05400979689921215</v>
       </c>
       <c r="F22">
-        <v>3.703690991546154</v>
+        <v>2.024353335540283</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1.210516048004379</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.479342871161705</v>
+        <v>2.621734133759276</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.5003922809384562</v>
       </c>
       <c r="M22">
-        <v>1.961708260316954</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>1.315060713030064</v>
+        <v>1.309860454448724</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.052190761997565</v>
+        <v>2.515156228590797</v>
       </c>
       <c r="C23">
-        <v>1.239003459823721</v>
+        <v>0.2768444603128017</v>
       </c>
       <c r="D23">
-        <v>0.03270566945841935</v>
+        <v>0.05001282293241438</v>
       </c>
       <c r="E23">
-        <v>0.3143137194904284</v>
+        <v>0.05245417703543609</v>
       </c>
       <c r="F23">
-        <v>3.559969324654531</v>
+        <v>1.969040220146098</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1.186066549564529</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.417166504995961</v>
+        <v>2.519485800806962</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.48189320632261</v>
       </c>
       <c r="M23">
-        <v>1.878226109998749</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>1.303445173305889</v>
+        <v>1.318483015982267</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.240466311954435</v>
+        <v>2.142153856104812</v>
       </c>
       <c r="C24">
-        <v>1.038204053700412</v>
+        <v>0.2341455633002454</v>
       </c>
       <c r="D24">
-        <v>0.03235552484418847</v>
+        <v>0.05242107626558123</v>
       </c>
       <c r="E24">
-        <v>0.2624622543673851</v>
+        <v>0.04671264451528145</v>
       </c>
       <c r="F24">
-        <v>3.038638693167059</v>
+        <v>1.767491083311228</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1.098245668971202</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.188568695257885</v>
+        <v>2.138879582666419</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.4133131834344823</v>
       </c>
       <c r="M24">
-        <v>1.572291774385519</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>1.267766497158007</v>
+        <v>1.355641515226992</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.404721020325951</v>
+        <v>1.751078772212679</v>
       </c>
       <c r="C25">
-        <v>0.8317591315474999</v>
+        <v>0.1894314002918236</v>
       </c>
       <c r="D25">
-        <v>0.03256699639485205</v>
+        <v>0.0550308556265886</v>
       </c>
       <c r="E25">
-        <v>0.210108384920801</v>
+        <v>0.04079599725922911</v>
       </c>
       <c r="F25">
-        <v>2.515031937817326</v>
+        <v>1.56456759646052</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1.012343470071173</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.9532789267310733</v>
+        <v>1.739851191426453</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3419673530293039</v>
       </c>
       <c r="M25">
-        <v>1.259103446647217</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1.243810309712003</v>
+        <v>1.404337645354616</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_51/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_51/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.470526460250284</v>
+        <v>1.01932169267991</v>
       </c>
       <c r="C2">
-        <v>0.157333531608927</v>
+        <v>0.04794862259097954</v>
       </c>
       <c r="D2">
-        <v>0.05696735443317635</v>
+        <v>0.09918881493162246</v>
       </c>
       <c r="E2">
-        <v>0.03663670548891851</v>
+        <v>0.0587433830858739</v>
       </c>
       <c r="F2">
-        <v>1.425363051084261</v>
+        <v>1.921414720276005</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.02672462365074526</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>0.9554423638708585</v>
+        <v>1.544883511641899</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.453506520363476</v>
+        <v>0.814875740161483</v>
       </c>
       <c r="L2">
-        <v>0.2912045436687833</v>
+        <v>0.2467597928774126</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.446719646000773</v>
+        <v>2.627067627999587</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.283992088387919</v>
+        <v>0.9749936956408192</v>
       </c>
       <c r="C3">
-        <v>0.1359504005421712</v>
+        <v>0.04172204689923831</v>
       </c>
       <c r="D3">
-        <v>0.05829137016038999</v>
+        <v>0.0993803596383529</v>
       </c>
       <c r="E3">
-        <v>0.03392275341979811</v>
+        <v>0.05837070214486673</v>
       </c>
       <c r="F3">
-        <v>1.336398398793222</v>
+        <v>1.907890773193515</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>0.9202914506798692</v>
+        <v>1.542902292285319</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.263021550589201</v>
+        <v>0.7674244833305863</v>
       </c>
       <c r="L3">
-        <v>0.2576877781634295</v>
+        <v>0.2392944416309604</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.47912657460521</v>
+        <v>2.641760148719165</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.170932624432396</v>
+        <v>0.9483559185673585</v>
       </c>
       <c r="C4">
-        <v>0.1229606998229826</v>
+        <v>0.03789546538081368</v>
       </c>
       <c r="D4">
-        <v>0.05911082630610487</v>
+        <v>0.09949987815922956</v>
       </c>
       <c r="E4">
-        <v>0.03230266329182285</v>
+        <v>0.05816767181456584</v>
       </c>
       <c r="F4">
-        <v>1.284129564046793</v>
+        <v>1.900532097282053</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>0.9002277679618302</v>
+        <v>1.542342171065279</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.147505039470246</v>
+        <v>0.7387516762821349</v>
       </c>
       <c r="L4">
-        <v>0.2374802880871698</v>
+        <v>0.2348535731389063</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.500726277156105</v>
+        <v>2.651500712145214</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.125189480388684</v>
+        <v>0.9376467304189191</v>
       </c>
       <c r="C5">
-        <v>0.1176965770898448</v>
+        <v>0.03633515587658565</v>
       </c>
       <c r="D5">
-        <v>0.05944650679507646</v>
+        <v>0.09954906736413527</v>
       </c>
       <c r="E5">
-        <v>0.03165336086278892</v>
+        <v>0.05809143077956946</v>
       </c>
       <c r="F5">
-        <v>1.263381412554537</v>
+        <v>1.897770825965011</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>0.8924111608352234</v>
+        <v>1.54227888044948</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.100750143530519</v>
+        <v>0.7271835219086995</v>
       </c>
       <c r="L5">
-        <v>0.2293302373602444</v>
+        <v>0.2330797952928663</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.509940189119718</v>
+        <v>2.655650810055775</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.117612619024754</v>
+        <v>0.9358772951911476</v>
       </c>
       <c r="C6">
-        <v>0.1168240794788602</v>
+        <v>0.03607600813016631</v>
       </c>
       <c r="D6">
-        <v>0.05950235492409561</v>
+        <v>0.09955726458275738</v>
       </c>
       <c r="E6">
-        <v>0.03154618202931481</v>
+        <v>0.05807916357838216</v>
       </c>
       <c r="F6">
-        <v>1.259968389404762</v>
+        <v>1.897326654564054</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>0.8911343021759279</v>
+        <v>1.542278332122656</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.09300457588256</v>
+        <v>0.72526965870955</v>
       </c>
       <c r="L6">
-        <v>0.2279817927309011</v>
+        <v>0.2327874293391687</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.511494578123738</v>
+        <v>2.656350843001313</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.170314434506651</v>
+        <v>0.9482108997035255</v>
       </c>
       <c r="C7">
-        <v>0.1228895948590747</v>
+        <v>0.03787442644021155</v>
       </c>
       <c r="D7">
-        <v>0.05911534619772674</v>
+        <v>0.09950053957521199</v>
       </c>
       <c r="E7">
-        <v>0.03229386339666007</v>
+        <v>0.05816661728980854</v>
       </c>
       <c r="F7">
-        <v>1.28384756464385</v>
+        <v>1.90049389666072</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>0.90012092351013</v>
+        <v>1.5423406496908</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.146873250455911</v>
+        <v>0.7385951934766695</v>
       </c>
       <c r="L7">
-        <v>0.2373700421523353</v>
+        <v>0.2348295059661609</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.500848892032153</v>
+        <v>2.651555950200219</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.405878046381616</v>
+        <v>1.003917122852442</v>
       </c>
       <c r="C8">
-        <v>0.1499280112461747</v>
+        <v>0.04580236202671983</v>
       </c>
       <c r="D8">
-        <v>0.05742259098376934</v>
+        <v>0.09925446586301412</v>
       </c>
       <c r="E8">
-        <v>0.03569086630290919</v>
+        <v>0.05860953331852059</v>
       </c>
       <c r="F8">
-        <v>1.394173824017969</v>
+        <v>1.916555381448376</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>0.9429930318911417</v>
+        <v>1.544064106237592</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.387500824429253</v>
+        <v>0.798418521257048</v>
       </c>
       <c r="L8">
-        <v>0.2795652468795566</v>
+        <v>0.2441560694355189</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.45753036859287</v>
+        <v>2.631984238538251</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.881520237409433</v>
+        <v>1.117758773852415</v>
       </c>
       <c r="C9">
-        <v>0.2043446305059433</v>
+        <v>0.06132614393239066</v>
       </c>
       <c r="D9">
-        <v>0.0541497338397825</v>
+        <v>0.09878686389780533</v>
       </c>
       <c r="E9">
-        <v>0.04275584524956777</v>
+        <v>0.05968251765390775</v>
       </c>
       <c r="F9">
-        <v>1.631196149766467</v>
+        <v>1.955563800163318</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>1.040215607665878</v>
+        <v>1.55265736177823</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.872952540386535</v>
+        <v>0.9194104010800856</v>
       </c>
       <c r="L9">
-        <v>0.3656946298070665</v>
+        <v>0.2635813068849018</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.386865088946465</v>
+        <v>2.599317529893085</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.242392061711769</v>
+        <v>1.204216383256835</v>
       </c>
       <c r="C10">
-        <v>0.2456124281654013</v>
+        <v>0.07272466747211581</v>
       </c>
       <c r="D10">
-        <v>0.05176667489199716</v>
+        <v>0.09845214126896984</v>
       </c>
       <c r="E10">
-        <v>0.04824721173240576</v>
+        <v>0.06059527786076657</v>
       </c>
       <c r="F10">
-        <v>1.820942440883798</v>
+        <v>1.988826758971058</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>1.121324375262446</v>
+        <v>1.562159834447129</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.241154306096888</v>
+        <v>1.010568793196938</v>
       </c>
       <c r="L10">
-        <v>0.4316955603556352</v>
+        <v>0.2785503289684641</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.344832748275394</v>
+        <v>2.578808771767271</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.409795674780923</v>
+        <v>1.244163574549816</v>
       </c>
       <c r="C11">
-        <v>0.2647746375460116</v>
+        <v>0.07791027655727589</v>
       </c>
       <c r="D11">
-        <v>0.0506857725041705</v>
+        <v>0.09830172423477102</v>
       </c>
       <c r="E11">
-        <v>0.05082405522853861</v>
+        <v>0.06103751007249159</v>
       </c>
       <c r="F11">
-        <v>1.911391537177394</v>
+        <v>2.004964152080134</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>1.160734422293729</v>
+        <v>1.567177751167947</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.411968823404663</v>
+        <v>1.052536748941179</v>
       </c>
       <c r="L11">
-        <v>0.4624738563601056</v>
+        <v>0.2855127060835656</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.328149606343089</v>
+        <v>2.570238861047798</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.473722237377558</v>
+        <v>1.259379349812832</v>
       </c>
       <c r="C12">
-        <v>0.2720969183580024</v>
+        <v>0.07987409019091274</v>
       </c>
       <c r="D12">
-        <v>0.05027680641132548</v>
+        <v>0.09824502731026996</v>
       </c>
       <c r="E12">
-        <v>0.05181238732016169</v>
+        <v>0.0612088509519424</v>
       </c>
       <c r="F12">
-        <v>1.946304730412024</v>
+        <v>2.011219958137659</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>1.176057238920237</v>
+        <v>1.569178034118096</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.477202708385676</v>
+        <v>1.068500995255988</v>
       </c>
       <c r="L12">
-        <v>0.4742520621248758</v>
+        <v>0.2881712189366823</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.322209968533684</v>
+        <v>2.56710307045546</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.459929578976357</v>
+        <v>1.256098419745967</v>
       </c>
       <c r="C13">
-        <v>0.270516830051406</v>
+        <v>0.07945114040072099</v>
       </c>
       <c r="D13">
-        <v>0.05036487074884555</v>
+        <v>0.09825722637208756</v>
       </c>
       <c r="E13">
-        <v>0.05159895431978967</v>
+        <v>0.06117177730639867</v>
       </c>
       <c r="F13">
-        <v>1.938754952223093</v>
+        <v>2.009866208305823</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>1.172738807097957</v>
+        <v>1.568742782876612</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.463127716507529</v>
+        <v>1.065059610772664</v>
       </c>
       <c r="L13">
-        <v>0.4717096894347463</v>
+        <v>0.2875976812300678</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.323471902764823</v>
+        <v>2.567773547834165</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.415043825259374</v>
+        <v>1.245413609659238</v>
       </c>
       <c r="C14">
-        <v>0.2653756629924686</v>
+        <v>0.0780718374799676</v>
       </c>
       <c r="D14">
-        <v>0.05065212023685461</v>
+        <v>0.09829705449718418</v>
       </c>
       <c r="E14">
-        <v>0.05090510733197107</v>
+        <v>0.06105152872752484</v>
       </c>
       <c r="F14">
-        <v>1.914250185389974</v>
+        <v>2.005475914882638</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>1.161986812362969</v>
+        <v>1.567340308556368</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.417324184889225</v>
+        <v>1.053848695915605</v>
       </c>
       <c r="L14">
-        <v>0.4634402995288838</v>
+        <v>0.28573098223724</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.32765320830886</v>
+        <v>2.569978682908555</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.387621747338926</v>
+        <v>1.23888039542436</v>
       </c>
       <c r="C15">
-        <v>0.2622354547462322</v>
+        <v>0.07722699481878692</v>
       </c>
       <c r="D15">
-        <v>0.05082811108670171</v>
+        <v>0.09832148449641842</v>
       </c>
       <c r="E15">
-        <v>0.05048177644174245</v>
+        <v>0.06097837770389347</v>
       </c>
       <c r="F15">
-        <v>1.899328656338426</v>
+        <v>2.002805615278518</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>1.155454059072284</v>
+        <v>1.566494293564702</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.389342132834003</v>
+        <v>1.046991051157278</v>
       </c>
       <c r="L15">
-        <v>0.4583915547832618</v>
+        <v>0.2845904425615657</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.330264452731186</v>
+        <v>2.571343651710734</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.2315227599168</v>
+        <v>1.201618150275749</v>
       </c>
       <c r="C16">
-        <v>0.2443687969963975</v>
+        <v>0.07238579018725488</v>
       </c>
       <c r="D16">
-        <v>0.0518373688549687</v>
+        <v>0.09846200831751162</v>
       </c>
       <c r="E16">
-        <v>0.04808049520262259</v>
+        <v>0.06056691989027385</v>
       </c>
       <c r="F16">
-        <v>1.815120188094227</v>
+        <v>1.987792407402893</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>1.118802548455847</v>
+        <v>1.561845902663237</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.230064021396856</v>
+        <v>1.007836145608707</v>
       </c>
       <c r="L16">
-        <v>0.4297005258956261</v>
+        <v>0.2780984000529969</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.3459743608895</v>
+        <v>2.579384139516222</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.136637866134492</v>
+        <v>1.178916967218811</v>
       </c>
       <c r="C17">
-        <v>0.2335146790860563</v>
+        <v>0.06941602052312135</v>
       </c>
       <c r="D17">
-        <v>0.05245724896665749</v>
+        <v>0.09854868655822635</v>
       </c>
       <c r="E17">
-        <v>0.04662839311898281</v>
+        <v>0.0603214173041664</v>
       </c>
       <c r="F17">
-        <v>1.764565714898879</v>
+        <v>1.978840123445607</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>1.096987431364852</v>
+        <v>1.559172419105124</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.133251597520683</v>
+        <v>0.9839438650503212</v>
       </c>
       <c r="L17">
-        <v>0.4123026860088004</v>
+        <v>0.2741549201518865</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.35625485180563</v>
+        <v>2.584511428736931</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.082363202000067</v>
+        <v>1.165917946412492</v>
       </c>
       <c r="C18">
-        <v>0.2273076632738622</v>
+        <v>0.06770791675342025</v>
       </c>
       <c r="D18">
-        <v>0.05281409153226058</v>
+        <v>0.09859871589943658</v>
       </c>
       <c r="E18">
-        <v>0.04580052042388161</v>
+        <v>0.06018275373365256</v>
       </c>
       <c r="F18">
-        <v>1.735872667322326</v>
+        <v>1.973785670279568</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>1.084674052693785</v>
+        <v>1.557700128545818</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.077875156851974</v>
+        <v>0.9702486730897704</v>
       </c>
       <c r="L18">
-        <v>0.4023659345951813</v>
+        <v>0.2719011243271012</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.362395563008491</v>
+        <v>2.587531996321019</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.064036386111127</v>
+        <v>1.161526683367867</v>
       </c>
       <c r="C19">
-        <v>0.2252119668801669</v>
+        <v>0.06712958463393193</v>
       </c>
       <c r="D19">
-        <v>0.05293496779960982</v>
+        <v>0.09861568501689177</v>
       </c>
       <c r="E19">
-        <v>0.04552144222559562</v>
+        <v>0.06013624162196152</v>
       </c>
       <c r="F19">
-        <v>1.726221778739372</v>
+        <v>1.972090569508751</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>1.080544071098743</v>
+        <v>1.557212869150085</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.059176347014784</v>
+        <v>0.9656197897280094</v>
       </c>
       <c r="L19">
-        <v>0.3990131229703877</v>
+        <v>0.2711404984245718</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.364513009530143</v>
+        <v>2.588566979993374</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.146706937733711</v>
+        <v>1.18132753466881</v>
       </c>
       <c r="C20">
-        <v>0.2346663249365974</v>
+        <v>0.06973215394862109</v>
       </c>
       <c r="D20">
-        <v>0.05239123099980958</v>
+        <v>0.098539441494502</v>
       </c>
       <c r="E20">
-        <v>0.04678220400718303</v>
+        <v>0.06034728833355985</v>
       </c>
       <c r="F20">
-        <v>1.769907054870501</v>
+        <v>1.979783310004933</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>1.099285197906966</v>
+        <v>1.559450243596942</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.14352511284963</v>
+        <v>0.9864823727286591</v>
       </c>
       <c r="L20">
-        <v>0.4141473663259347</v>
+        <v>0.2745732208760359</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.355136725833262</v>
+        <v>2.583958219908467</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.42821277668952</v>
+        <v>1.248549592554184</v>
       </c>
       <c r="C21">
-        <v>0.266883873275404</v>
+        <v>0.0784769678219277</v>
       </c>
       <c r="D21">
-        <v>0.05056773948100712</v>
+        <v>0.09828534890608331</v>
       </c>
       <c r="E21">
-        <v>0.05110855658577407</v>
+        <v>0.06108674348335086</v>
       </c>
       <c r="F21">
-        <v>1.921429287251726</v>
+        <v>2.006761515014006</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>1.165133784111163</v>
+        <v>1.56774953127065</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.430762244115186</v>
+        <v>1.057139661744657</v>
       </c>
       <c r="L21">
-        <v>0.4658657539632713</v>
+        <v>0.286278679379393</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.326414569343711</v>
+        <v>2.569328009143121</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.615344917026903</v>
+        <v>1.292999712348205</v>
       </c>
       <c r="C22">
-        <v>0.2883298199047601</v>
+        <v>0.08419304116202397</v>
       </c>
       <c r="D22">
-        <v>0.04937796531557126</v>
+        <v>0.09812081477857859</v>
       </c>
       <c r="E22">
-        <v>0.05400979689921215</v>
+        <v>0.06159261578530462</v>
       </c>
       <c r="F22">
-        <v>2.024353335540283</v>
+        <v>2.025238200155144</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>1.210516048004379</v>
+        <v>1.573757161003272</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.621734133759276</v>
+        <v>1.103737358089631</v>
       </c>
       <c r="L22">
-        <v>0.5003922809384562</v>
+        <v>0.2940571869794439</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.309860454448724</v>
+        <v>2.560404373762594</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.515156228590797</v>
+        <v>1.269228611475626</v>
       </c>
       <c r="C23">
-        <v>0.2768444603128017</v>
+        <v>0.08114216134497099</v>
       </c>
       <c r="D23">
-        <v>0.05001282293241438</v>
+        <v>0.09820849077467919</v>
       </c>
       <c r="E23">
-        <v>0.05245417703543609</v>
+        <v>0.06132055710236983</v>
       </c>
       <c r="F23">
-        <v>1.969040220146098</v>
+        <v>2.015299447268049</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>1.186066549564529</v>
+        <v>1.570497333083679</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.519485800806962</v>
+        <v>1.078828924985515</v>
       </c>
       <c r="L23">
-        <v>0.48189320632261</v>
+        <v>0.2898939016379529</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.318483015982267</v>
+        <v>2.565108631819243</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.142153856104812</v>
+        <v>1.180237554544249</v>
       </c>
       <c r="C24">
-        <v>0.2341455633002454</v>
+        <v>0.06958923235239922</v>
       </c>
       <c r="D24">
-        <v>0.05242107626558123</v>
+        <v>0.09854362057326149</v>
       </c>
       <c r="E24">
-        <v>0.04671264451528145</v>
+        <v>0.06033558431873587</v>
       </c>
       <c r="F24">
-        <v>1.767491083311228</v>
+        <v>1.979356607754482</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>1.098245668971202</v>
+        <v>1.559324437510384</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.138879582666419</v>
+        <v>0.9853345863319305</v>
       </c>
       <c r="L24">
-        <v>0.4133131834344823</v>
+        <v>0.2743840654977561</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.355641515226992</v>
+        <v>2.584208098778888</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.751078772212679</v>
+        <v>1.086467629072388</v>
       </c>
       <c r="C25">
-        <v>0.1894314002918236</v>
+        <v>0.05712826127383153</v>
       </c>
       <c r="D25">
-        <v>0.0550308556265886</v>
+        <v>0.09891179283161655</v>
       </c>
       <c r="E25">
-        <v>0.04079599725922911</v>
+        <v>0.05937038119142279</v>
       </c>
       <c r="F25">
-        <v>1.56456759646052</v>
+        <v>1.94420432214568</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>1.012343470071173</v>
+        <v>1.549773417740262</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.739851191426453</v>
+        <v>0.886282705774903</v>
       </c>
       <c r="L25">
-        <v>0.3419673530293039</v>
+        <v>0.2582041647424944</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.404337645354616</v>
+        <v>2.607542227327855</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_51/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_51/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.01932169267991</v>
+        <v>1.470526460250198</v>
       </c>
       <c r="C2">
-        <v>0.04794862259097954</v>
+        <v>0.1573335316087849</v>
       </c>
       <c r="D2">
-        <v>0.09918881493162246</v>
+        <v>0.05696735443325451</v>
       </c>
       <c r="E2">
-        <v>0.0587433830858739</v>
+        <v>0.03663670548893272</v>
       </c>
       <c r="F2">
-        <v>1.921414720276005</v>
+        <v>1.425363051084261</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="I2">
-        <v>1.544883511641899</v>
+        <v>0.9554423638708442</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.814875740161483</v>
+        <v>1.453506520363362</v>
       </c>
       <c r="L2">
-        <v>0.2467597928774126</v>
+        <v>0.2912045436687407</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.627067627999587</v>
+        <v>1.44671964600083</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9749936956408192</v>
+        <v>1.283992088388032</v>
       </c>
       <c r="C3">
-        <v>0.04172204689923831</v>
+        <v>0.1359504005421712</v>
       </c>
       <c r="D3">
-        <v>0.0993803596383529</v>
+        <v>0.05829137016049657</v>
       </c>
       <c r="E3">
-        <v>0.05837070214486673</v>
+        <v>0.03392275341976969</v>
       </c>
       <c r="F3">
-        <v>1.907890773193515</v>
+        <v>1.336398398793222</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>1.542902292285319</v>
+        <v>0.920291450679855</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7674244833305863</v>
+        <v>1.263021550589229</v>
       </c>
       <c r="L3">
-        <v>0.2392944416309604</v>
+        <v>0.2576877781634721</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.641760148719165</v>
+        <v>1.479126574605175</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9483559185673585</v>
+        <v>1.170932624432339</v>
       </c>
       <c r="C4">
-        <v>0.03789546538081368</v>
+        <v>0.1229606998231105</v>
       </c>
       <c r="D4">
-        <v>0.09949987815922956</v>
+        <v>0.05911082630598763</v>
       </c>
       <c r="E4">
-        <v>0.05816767181456584</v>
+        <v>0.03230266329182285</v>
       </c>
       <c r="F4">
-        <v>1.900532097282053</v>
+        <v>1.284129564046793</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>1.542342171065279</v>
+        <v>0.9002277679618444</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7387516762821349</v>
+        <v>1.147505039470303</v>
       </c>
       <c r="L4">
-        <v>0.2348535731389063</v>
+        <v>0.2374802880872267</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.651500712145214</v>
+        <v>1.500726277156168</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9376467304189191</v>
+        <v>1.125189480388741</v>
       </c>
       <c r="C5">
-        <v>0.03633515587658565</v>
+        <v>0.1176965770900011</v>
       </c>
       <c r="D5">
-        <v>0.09954906736413527</v>
+        <v>0.05944650679506758</v>
       </c>
       <c r="E5">
-        <v>0.05809143077956946</v>
+        <v>0.03165336086278714</v>
       </c>
       <c r="F5">
-        <v>1.897770825965011</v>
+        <v>1.263381412554537</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>1.54227888044948</v>
+        <v>0.8924111608351879</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7271835219086995</v>
+        <v>1.100750143530519</v>
       </c>
       <c r="L5">
-        <v>0.2330797952928663</v>
+        <v>0.2293302373602586</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.655650810055775</v>
+        <v>1.509940189119753</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9358772951911476</v>
+        <v>1.117612619024726</v>
       </c>
       <c r="C6">
-        <v>0.03607600813016631</v>
+        <v>0.1168240794789881</v>
       </c>
       <c r="D6">
-        <v>0.09955726458275738</v>
+        <v>0.05950235492396949</v>
       </c>
       <c r="E6">
-        <v>0.05807916357838216</v>
+        <v>0.03154618202929527</v>
       </c>
       <c r="F6">
-        <v>1.897326654564054</v>
+        <v>1.259968389404747</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>1.542278332122656</v>
+        <v>0.8911343021759137</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.72526965870955</v>
+        <v>1.09300457588256</v>
       </c>
       <c r="L6">
-        <v>0.2327874293391687</v>
+        <v>0.2279817927308727</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.656350843001313</v>
+        <v>1.511494578123759</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9482108997035255</v>
+        <v>1.170314434506707</v>
       </c>
       <c r="C7">
-        <v>0.03787442644021155</v>
+        <v>0.1228895948593447</v>
       </c>
       <c r="D7">
-        <v>0.09950053957521199</v>
+        <v>0.05911534619784042</v>
       </c>
       <c r="E7">
-        <v>0.05816661728980854</v>
+        <v>0.03229386339666007</v>
       </c>
       <c r="F7">
-        <v>1.90049389666072</v>
+        <v>1.283847564643835</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>1.5423406496908</v>
+        <v>0.9001209235101157</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7385951934766695</v>
+        <v>1.146873250455968</v>
       </c>
       <c r="L7">
-        <v>0.2348295059661609</v>
+        <v>0.2373700421524347</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.651555950200219</v>
+        <v>1.500848892032117</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.003917122852442</v>
+        <v>1.405878046381531</v>
       </c>
       <c r="C8">
-        <v>0.04580236202671983</v>
+        <v>0.1499280112464447</v>
       </c>
       <c r="D8">
-        <v>0.09925446586301412</v>
+        <v>0.05742259098396119</v>
       </c>
       <c r="E8">
-        <v>0.05860953331852059</v>
+        <v>0.03569086630290563</v>
       </c>
       <c r="F8">
-        <v>1.916555381448376</v>
+        <v>1.394173824017955</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>1.544064106237592</v>
+        <v>0.9429930318911488</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.798418521257048</v>
+        <v>1.387500824429338</v>
       </c>
       <c r="L8">
-        <v>0.2441560694355189</v>
+        <v>0.2795652468795851</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.631984238538251</v>
+        <v>1.457530368592856</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.117758773852415</v>
+        <v>1.881520237409461</v>
       </c>
       <c r="C9">
-        <v>0.06132614393239066</v>
+        <v>0.2043446305059575</v>
       </c>
       <c r="D9">
-        <v>0.09878686389780533</v>
+        <v>0.05414973383956223</v>
       </c>
       <c r="E9">
-        <v>0.05968251765390775</v>
+        <v>0.0427558452495429</v>
       </c>
       <c r="F9">
-        <v>1.955563800163318</v>
+        <v>1.631196149766495</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>1.55265736177823</v>
+        <v>1.040215607665878</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.9194104010800856</v>
+        <v>1.87295254038645</v>
       </c>
       <c r="L9">
-        <v>0.2635813068849018</v>
+        <v>0.3656946298070665</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.599317529893085</v>
+        <v>1.386865088946465</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.204216383256835</v>
+        <v>2.242392061711712</v>
       </c>
       <c r="C10">
-        <v>0.07272466747211581</v>
+        <v>0.245612428165515</v>
       </c>
       <c r="D10">
-        <v>0.09845214126896984</v>
+        <v>0.05176667489199893</v>
       </c>
       <c r="E10">
-        <v>0.06059527786076657</v>
+        <v>0.04824721173241286</v>
       </c>
       <c r="F10">
-        <v>1.988826758971058</v>
+        <v>1.820942440883812</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>1.562159834447129</v>
+        <v>1.121324375262446</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.010568793196938</v>
+        <v>2.241154306096973</v>
       </c>
       <c r="L10">
-        <v>0.2785503289684641</v>
+        <v>0.4316955603556352</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.578808771767271</v>
+        <v>1.344832748275408</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.244163574549816</v>
+        <v>2.409795674780753</v>
       </c>
       <c r="C11">
-        <v>0.07791027655727589</v>
+        <v>0.2647746375460684</v>
       </c>
       <c r="D11">
-        <v>0.09830172423477102</v>
+        <v>0.05068577250405859</v>
       </c>
       <c r="E11">
-        <v>0.06103751007249159</v>
+        <v>0.05082405522850664</v>
       </c>
       <c r="F11">
-        <v>2.004964152080134</v>
+        <v>1.911391537177408</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>1.567177751167947</v>
+        <v>1.160734422293771</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.052536748941179</v>
+        <v>2.411968823404607</v>
       </c>
       <c r="L11">
-        <v>0.2855127060835656</v>
+        <v>0.4624738563601198</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.570238861047798</v>
+        <v>1.328149606343146</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.259379349812832</v>
+        <v>2.473722237377558</v>
       </c>
       <c r="C12">
-        <v>0.07987409019091274</v>
+        <v>0.2720969183580593</v>
       </c>
       <c r="D12">
-        <v>0.09824502731026996</v>
+        <v>0.05027680641121712</v>
       </c>
       <c r="E12">
-        <v>0.0612088509519424</v>
+        <v>0.05181238732013682</v>
       </c>
       <c r="F12">
-        <v>2.011219958137659</v>
+        <v>1.946304730412024</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>1.569178034118096</v>
+        <v>1.176057238920237</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.068500995255988</v>
+        <v>2.47720270838559</v>
       </c>
       <c r="L12">
-        <v>0.2881712189366823</v>
+        <v>0.4742520621247905</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.56710307045546</v>
+        <v>1.322209968533755</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.256098419745967</v>
+        <v>2.459929578976187</v>
       </c>
       <c r="C13">
-        <v>0.07945114040072099</v>
+        <v>0.2705168300514629</v>
       </c>
       <c r="D13">
-        <v>0.09825722637208756</v>
+        <v>0.05036487074885443</v>
       </c>
       <c r="E13">
-        <v>0.06117177730639867</v>
+        <v>0.05159895431982875</v>
       </c>
       <c r="F13">
-        <v>2.009866208305823</v>
+        <v>1.938754952223093</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>1.568742782876612</v>
+        <v>1.172738807097943</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.065059610772664</v>
+        <v>2.463127716507557</v>
       </c>
       <c r="L13">
-        <v>0.2875976812300678</v>
+        <v>0.4717096894346895</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.567773547834165</v>
+        <v>1.323471902764865</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.245413609659238</v>
+        <v>2.415043825259318</v>
       </c>
       <c r="C14">
-        <v>0.0780718374799676</v>
+        <v>0.265375662992696</v>
       </c>
       <c r="D14">
-        <v>0.09829705449718418</v>
+        <v>0.05065212023693455</v>
       </c>
       <c r="E14">
-        <v>0.06105152872752484</v>
+        <v>0.05090510733194975</v>
       </c>
       <c r="F14">
-        <v>2.005475914882638</v>
+        <v>1.914250185389989</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>1.567340308556368</v>
+        <v>1.161986812362969</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.053848695915605</v>
+        <v>2.417324184889253</v>
       </c>
       <c r="L14">
-        <v>0.28573098223724</v>
+        <v>0.4634402995289406</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.569978682908555</v>
+        <v>1.327653208308817</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.23888039542436</v>
+        <v>2.387621747338869</v>
       </c>
       <c r="C15">
-        <v>0.07722699481878692</v>
+        <v>0.2622354547460759</v>
       </c>
       <c r="D15">
-        <v>0.09832148449641842</v>
+        <v>0.05082811108692731</v>
       </c>
       <c r="E15">
-        <v>0.06097837770389347</v>
+        <v>0.05048177644172469</v>
       </c>
       <c r="F15">
-        <v>2.002805615278518</v>
+        <v>1.899328656338426</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>1.566494293564702</v>
+        <v>1.155454059072298</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.046991051157278</v>
+        <v>2.389342132833974</v>
       </c>
       <c r="L15">
-        <v>0.2845904425615657</v>
+        <v>0.4583915547832333</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.571343651710734</v>
+        <v>1.330264452731171</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.201618150275749</v>
+        <v>2.2315227599168</v>
       </c>
       <c r="C16">
-        <v>0.07238579018725488</v>
+        <v>0.2443687969964259</v>
       </c>
       <c r="D16">
-        <v>0.09846200831751162</v>
+        <v>0.05183736885494206</v>
       </c>
       <c r="E16">
-        <v>0.06056691989027385</v>
+        <v>0.04808049520261903</v>
       </c>
       <c r="F16">
-        <v>1.987792407402893</v>
+        <v>1.815120188094269</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>1.561845902663237</v>
+        <v>1.118802548455861</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.007836145608707</v>
+        <v>2.230064021396913</v>
       </c>
       <c r="L16">
-        <v>0.2780984000529969</v>
+        <v>0.4297005258956688</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.579384139516222</v>
+        <v>1.3459743608895</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.178916967218811</v>
+        <v>2.136637866134492</v>
       </c>
       <c r="C17">
-        <v>0.06941602052312135</v>
+        <v>0.2335146790860421</v>
       </c>
       <c r="D17">
-        <v>0.09854868655822635</v>
+        <v>0.05245724896675874</v>
       </c>
       <c r="E17">
-        <v>0.0603214173041664</v>
+        <v>0.04662839311903255</v>
       </c>
       <c r="F17">
-        <v>1.978840123445607</v>
+        <v>1.764565714898893</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>1.559172419105124</v>
+        <v>1.096987431364838</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.9839438650503212</v>
+        <v>2.133251597520854</v>
       </c>
       <c r="L17">
-        <v>0.2741549201518865</v>
+        <v>0.4123026860088146</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.584511428736931</v>
+        <v>1.356254851805616</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.165917946412492</v>
+        <v>2.082363201999954</v>
       </c>
       <c r="C18">
-        <v>0.06770791675342025</v>
+        <v>0.2273076632739759</v>
       </c>
       <c r="D18">
-        <v>0.09859871589943658</v>
+        <v>0.05281409153226058</v>
       </c>
       <c r="E18">
-        <v>0.06018275373365256</v>
+        <v>0.0458005204238674</v>
       </c>
       <c r="F18">
-        <v>1.973785670279568</v>
+        <v>1.735872667322354</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>1.557700128545818</v>
+        <v>1.084674052693799</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.9702486730897704</v>
+        <v>2.077875156852116</v>
       </c>
       <c r="L18">
-        <v>0.2719011243271012</v>
+        <v>0.4023659345952382</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.587531996321019</v>
+        <v>1.362395563008562</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.161526683367867</v>
+        <v>2.06403638611107</v>
       </c>
       <c r="C19">
-        <v>0.06712958463393193</v>
+        <v>0.225211966880039</v>
       </c>
       <c r="D19">
-        <v>0.09861568501689177</v>
+        <v>0.05293496779951568</v>
       </c>
       <c r="E19">
-        <v>0.06013624162196152</v>
+        <v>0.04552144222559562</v>
       </c>
       <c r="F19">
-        <v>1.972090569508751</v>
+        <v>1.726221778739358</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>1.557212869150085</v>
+        <v>1.080544071098757</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.9656197897280094</v>
+        <v>2.059176347014784</v>
       </c>
       <c r="L19">
-        <v>0.2711404984245718</v>
+        <v>0.3990131229703167</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.588566979993374</v>
+        <v>1.364513009530185</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.18132753466881</v>
+        <v>2.146706937733711</v>
       </c>
       <c r="C20">
-        <v>0.06973215394862109</v>
+        <v>0.2346663249363132</v>
       </c>
       <c r="D20">
-        <v>0.098539441494502</v>
+        <v>0.05239123100023946</v>
       </c>
       <c r="E20">
-        <v>0.06034728833355985</v>
+        <v>0.04678220400718303</v>
       </c>
       <c r="F20">
-        <v>1.979783310004933</v>
+        <v>1.769907054870501</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>1.559450243596942</v>
+        <v>1.09928519790698</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.9864823727286591</v>
+        <v>2.143525112849574</v>
       </c>
       <c r="L20">
-        <v>0.2745732208760359</v>
+        <v>0.4141473663259916</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.583958219908467</v>
+        <v>1.355136725833233</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.248549592554184</v>
+        <v>2.42821277668952</v>
       </c>
       <c r="C21">
-        <v>0.0784769678219277</v>
+        <v>0.2668838732751624</v>
       </c>
       <c r="D21">
-        <v>0.09828534890608331</v>
+        <v>0.05056773948086857</v>
       </c>
       <c r="E21">
-        <v>0.06108674348335086</v>
+        <v>0.05110855658576696</v>
       </c>
       <c r="F21">
-        <v>2.006761515014006</v>
+        <v>1.921429287251726</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>1.56774953127065</v>
+        <v>1.165133784111163</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.057139661744657</v>
+        <v>2.430762244115158</v>
       </c>
       <c r="L21">
-        <v>0.286278679379393</v>
+        <v>0.4658657539631292</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.569328009143121</v>
+        <v>1.326414569343697</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.292999712348205</v>
+        <v>2.615344917026903</v>
       </c>
       <c r="C22">
-        <v>0.08419304116202397</v>
+        <v>0.2883298199045612</v>
       </c>
       <c r="D22">
-        <v>0.09812081477857859</v>
+        <v>0.04937796531557126</v>
       </c>
       <c r="E22">
-        <v>0.06159261578530462</v>
+        <v>0.05400979689920504</v>
       </c>
       <c r="F22">
-        <v>2.025238200155144</v>
+        <v>2.024353335540312</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>1.573757161003272</v>
+        <v>1.210516048004379</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.103737358089631</v>
+        <v>2.621734133759219</v>
       </c>
       <c r="L22">
-        <v>0.2940571869794439</v>
+        <v>0.5003922809383994</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.560404373762594</v>
+        <v>1.309860454448724</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.269228611475626</v>
+        <v>2.515156228590797</v>
       </c>
       <c r="C23">
-        <v>0.08114216134497099</v>
+        <v>0.2768444603125459</v>
       </c>
       <c r="D23">
-        <v>0.09820849077467919</v>
+        <v>0.05001282293220299</v>
       </c>
       <c r="E23">
-        <v>0.06132055710236983</v>
+        <v>0.05245417703543609</v>
       </c>
       <c r="F23">
-        <v>2.015299447268049</v>
+        <v>1.969040220146098</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>1.570497333083679</v>
+        <v>1.186066549564515</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.078828924985515</v>
+        <v>2.51948580080699</v>
       </c>
       <c r="L23">
-        <v>0.2898939016379529</v>
+        <v>0.48189320632261</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.565108631819243</v>
+        <v>1.31848301598221</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.180237554544249</v>
+        <v>2.142153856104699</v>
       </c>
       <c r="C24">
-        <v>0.06958923235239922</v>
+        <v>0.234145563300018</v>
       </c>
       <c r="D24">
-        <v>0.09854362057326149</v>
+        <v>0.05242107626570736</v>
       </c>
       <c r="E24">
-        <v>0.06033558431873587</v>
+        <v>0.04671264451526724</v>
       </c>
       <c r="F24">
-        <v>1.979356607754482</v>
+        <v>1.767491083311199</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>1.559324437510384</v>
+        <v>1.098245668971188</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.9853345863319305</v>
+        <v>2.138879582666419</v>
       </c>
       <c r="L24">
-        <v>0.2743840654977561</v>
+        <v>0.4133131834344681</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.584208098778888</v>
+        <v>1.355641515226964</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.086467629072388</v>
+        <v>1.751078772212736</v>
       </c>
       <c r="C25">
-        <v>0.05712826127383153</v>
+        <v>0.1894314002920225</v>
       </c>
       <c r="D25">
-        <v>0.09891179283161655</v>
+        <v>0.05503085562678756</v>
       </c>
       <c r="E25">
-        <v>0.05937038119142279</v>
+        <v>0.04079599725922733</v>
       </c>
       <c r="F25">
-        <v>1.94420432214568</v>
+        <v>1.56456759646052</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>1.549773417740262</v>
+        <v>1.012343470071187</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.886282705774903</v>
+        <v>1.739851191426453</v>
       </c>
       <c r="L25">
-        <v>0.2582041647424944</v>
+        <v>0.3419673530293466</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.607542227327855</v>
+        <v>1.404337645354616</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_51/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_51/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.470526460250198</v>
+        <v>1.017150806320387</v>
       </c>
       <c r="C2">
-        <v>0.1573335316087849</v>
+        <v>0.3046104182824934</v>
       </c>
       <c r="D2">
-        <v>0.05696735443325451</v>
+        <v>0.05161420773745995</v>
       </c>
       <c r="E2">
-        <v>0.03663670548893272</v>
+        <v>0.2920916513830321</v>
       </c>
       <c r="F2">
-        <v>1.425363051084261</v>
+        <v>1.347146057129734</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
+        <v>0.0003001778822451229</v>
+      </c>
+      <c r="I2">
+        <v>0.002576240207203817</v>
+      </c>
+      <c r="J2">
         <v>0.02672462365074526</v>
       </c>
-      <c r="I2">
-        <v>0.9554423638708442</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
       <c r="K2">
-        <v>1.453506520363362</v>
+        <v>0.8094687236862512</v>
       </c>
       <c r="L2">
-        <v>0.2912045436687407</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.300554613196681</v>
       </c>
       <c r="N2">
-        <v>1.44671964600083</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.679347097586799</v>
+      </c>
+      <c r="P2">
+        <v>1.442235782761912</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.283992088388032</v>
+        <v>0.8841223846640958</v>
       </c>
       <c r="C3">
-        <v>0.1359504005421712</v>
+        <v>0.2636581879789333</v>
       </c>
       <c r="D3">
-        <v>0.05829137016049657</v>
+        <v>0.05063362426287732</v>
       </c>
       <c r="E3">
-        <v>0.03392275341976969</v>
+        <v>0.2533150685854224</v>
       </c>
       <c r="F3">
-        <v>1.336398398793222</v>
+        <v>1.245082880136351</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
+        <v>0.001094516278071112</v>
+      </c>
+      <c r="I3">
+        <v>0.004420015176534786</v>
+      </c>
+      <c r="J3">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I3">
-        <v>0.920291450679855</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
       <c r="K3">
-        <v>1.263021550589229</v>
+        <v>0.7667101858809389</v>
       </c>
       <c r="L3">
-        <v>0.2576877781634721</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1.12959336126508</v>
       </c>
       <c r="N3">
-        <v>1.479126574605175</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.5909480869869554</v>
+      </c>
+      <c r="P3">
+        <v>1.4417113168751</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.170932624432339</v>
+        <v>0.8022934278695288</v>
       </c>
       <c r="C4">
-        <v>0.1229606998231105</v>
+        <v>0.2389319123796696</v>
       </c>
       <c r="D4">
-        <v>0.05911082630598763</v>
+        <v>0.04999554357849689</v>
       </c>
       <c r="E4">
-        <v>0.03230266329182285</v>
+        <v>0.2296342835690268</v>
       </c>
       <c r="F4">
-        <v>1.284129564046793</v>
+        <v>1.182949873532863</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
+        <v>0.001856794224090796</v>
+      </c>
+      <c r="I4">
+        <v>0.005918869702441043</v>
+      </c>
+      <c r="J4">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I4">
-        <v>0.9002277679618444</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
       <c r="K4">
-        <v>1.147505039470303</v>
+        <v>0.7405259042846524</v>
       </c>
       <c r="L4">
-        <v>0.2374802880872267</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1.024927914194251</v>
       </c>
       <c r="N4">
-        <v>1.500726277156168</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.5367579279456578</v>
+      </c>
+      <c r="P4">
+        <v>1.44146998115886</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.125189480388741</v>
+        <v>0.7679587462504571</v>
       </c>
       <c r="C5">
-        <v>0.1176965770900011</v>
+        <v>0.2293061122756228</v>
       </c>
       <c r="D5">
-        <v>0.05944650679506758</v>
+        <v>0.04973441844445681</v>
       </c>
       <c r="E5">
-        <v>0.03165336086278714</v>
+        <v>0.220040267616362</v>
       </c>
       <c r="F5">
-        <v>1.263381412554537</v>
+        <v>1.156393343150796</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
+        <v>0.002234630320566477</v>
+      </c>
+      <c r="I5">
+        <v>0.006699994977334534</v>
+      </c>
+      <c r="J5">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I5">
-        <v>0.8924111608351879</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
       <c r="K5">
-        <v>1.100750143530519</v>
+        <v>0.7288210643391579</v>
       </c>
       <c r="L5">
-        <v>0.2293302373602586</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.9818936321908893</v>
       </c>
       <c r="N5">
-        <v>1.509940189119753</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.5145993607500472</v>
+      </c>
+      <c r="P5">
+        <v>1.440091780675942</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.117612619024726</v>
+        <v>0.761101588647648</v>
       </c>
       <c r="C6">
-        <v>0.1168240794789881</v>
+        <v>0.2281487605389287</v>
       </c>
       <c r="D6">
-        <v>0.05950235492396949</v>
+        <v>0.04970052277679926</v>
       </c>
       <c r="E6">
-        <v>0.03154618202929527</v>
+        <v>0.2184846831050606</v>
       </c>
       <c r="F6">
-        <v>1.259968389404747</v>
+        <v>1.150333654155901</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
+        <v>0.002303408375371685</v>
+      </c>
+      <c r="I6">
+        <v>0.006943295136416339</v>
+      </c>
+      <c r="J6">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I6">
-        <v>0.8911343021759137</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
       <c r="K6">
-        <v>1.09300457588256</v>
+        <v>0.7255992433674692</v>
       </c>
       <c r="L6">
-        <v>0.2279817927308727</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.9742118542435207</v>
       </c>
       <c r="N6">
-        <v>1.511494578123759</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.5108114960334049</v>
+      </c>
+      <c r="P6">
+        <v>1.438282433735687</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.170314434506707</v>
+        <v>0.79866888604937</v>
       </c>
       <c r="C7">
-        <v>0.1228895948593447</v>
+        <v>0.2399935458414717</v>
       </c>
       <c r="D7">
-        <v>0.05911534619784042</v>
+        <v>0.05002014326048965</v>
       </c>
       <c r="E7">
-        <v>0.03229386339666007</v>
+        <v>0.2296029756335898</v>
       </c>
       <c r="F7">
-        <v>1.283847564643835</v>
+        <v>1.178061221044558</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
+        <v>0.001866866129013545</v>
+      </c>
+      <c r="I7">
+        <v>0.006206986524366798</v>
+      </c>
+      <c r="J7">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I7">
-        <v>0.9001209235101157</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
       <c r="K7">
-        <v>1.146873250455968</v>
+        <v>0.7368717648504202</v>
       </c>
       <c r="L7">
-        <v>0.2373700421524347</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1.022868609887809</v>
       </c>
       <c r="N7">
-        <v>1.500848892032117</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.5361597150163675</v>
+      </c>
+      <c r="P7">
+        <v>1.437143459811161</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.405878046381531</v>
+        <v>0.9670718205498758</v>
       </c>
       <c r="C8">
-        <v>0.1499280112464447</v>
+        <v>0.2919859171556141</v>
       </c>
       <c r="D8">
-        <v>0.05742259098396119</v>
+        <v>0.05132504678875982</v>
       </c>
       <c r="E8">
-        <v>0.03569086630290563</v>
+        <v>0.2788201252497373</v>
       </c>
       <c r="F8">
-        <v>1.394173824017955</v>
+        <v>1.305821252139083</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
+        <v>0.00051839370754303</v>
+      </c>
+      <c r="I8">
+        <v>0.003458546025285614</v>
+      </c>
+      <c r="J8">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I8">
-        <v>0.9429930318911488</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
       <c r="K8">
-        <v>1.387500824429338</v>
+        <v>0.7900732265583983</v>
       </c>
       <c r="L8">
-        <v>0.2795652468795851</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.239545963036903</v>
       </c>
       <c r="N8">
-        <v>1.457530368592856</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.6484405177754553</v>
+      </c>
+      <c r="P8">
+        <v>1.436394904769571</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.881520237409461</v>
+        <v>1.302327431527829</v>
       </c>
       <c r="C9">
-        <v>0.2043446305059575</v>
+        <v>0.3956034718523256</v>
       </c>
       <c r="D9">
-        <v>0.05414973383956223</v>
+        <v>0.05353948299038436</v>
       </c>
       <c r="E9">
-        <v>0.0427558452495429</v>
+        <v>0.3764458612019865</v>
       </c>
       <c r="F9">
-        <v>1.631196149766495</v>
+        <v>1.569536946608892</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
+        <v>0.000220747203667937</v>
+      </c>
+      <c r="I9">
+        <v>0.0007930332348013991</v>
+      </c>
+      <c r="J9">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I9">
-        <v>1.040215607665878</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
       <c r="K9">
-        <v>1.87295254038645</v>
+        <v>0.9015038354265315</v>
       </c>
       <c r="L9">
-        <v>0.3656946298070665</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.670491918338513</v>
       </c>
       <c r="N9">
-        <v>1.386865088946465</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.8702776946377071</v>
+      </c>
+      <c r="P9">
+        <v>1.443400395221047</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.242392061711712</v>
+        <v>1.543959393543105</v>
       </c>
       <c r="C10">
-        <v>0.245612428165515</v>
+        <v>0.4710660114389498</v>
       </c>
       <c r="D10">
-        <v>0.05176667489199893</v>
+        <v>0.05527744110416855</v>
       </c>
       <c r="E10">
-        <v>0.04824721173241286</v>
+        <v>0.4195931971626194</v>
       </c>
       <c r="F10">
-        <v>1.820942440883812</v>
+        <v>1.741955181893474</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
+        <v>0.001700904751989363</v>
+      </c>
+      <c r="I10">
+        <v>0.001170521315286166</v>
+      </c>
+      <c r="J10">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I10">
-        <v>1.121324375262446</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
       <c r="K10">
-        <v>2.241154306096973</v>
+        <v>0.9682900752912005</v>
       </c>
       <c r="L10">
-        <v>0.4316955603556352</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.981558387823412</v>
       </c>
       <c r="N10">
-        <v>1.344832748275408</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.9991289296202979</v>
+      </c>
+      <c r="P10">
+        <v>1.4267198597678</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.409795674780753</v>
+        <v>1.61968727098278</v>
       </c>
       <c r="C11">
-        <v>0.2647746375460684</v>
+        <v>0.4706390477878131</v>
       </c>
       <c r="D11">
-        <v>0.05068577250405859</v>
+        <v>0.05970814103242716</v>
       </c>
       <c r="E11">
-        <v>0.05082405522850664</v>
+        <v>0.2216640303905706</v>
       </c>
       <c r="F11">
-        <v>1.911391537177408</v>
+        <v>1.61503073322281</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
+        <v>0.0198821819921875</v>
+      </c>
+      <c r="I11">
+        <v>0.001965124153145759</v>
+      </c>
+      <c r="J11">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I11">
-        <v>1.160734422293771</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
       <c r="K11">
-        <v>2.411968823404607</v>
+        <v>0.8730326150356191</v>
       </c>
       <c r="L11">
-        <v>0.4624738563601198</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>2.049564692564928</v>
       </c>
       <c r="N11">
-        <v>1.328149606343146</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.7714114403263395</v>
+      </c>
+      <c r="P11">
+        <v>1.247827677731465</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.473722237377558</v>
+        <v>1.637368244744636</v>
       </c>
       <c r="C12">
-        <v>0.2720969183580593</v>
+        <v>0.4523793837818744</v>
       </c>
       <c r="D12">
-        <v>0.05027680641121712</v>
+        <v>0.0645631748824087</v>
       </c>
       <c r="E12">
-        <v>0.05181238732013682</v>
+        <v>0.1006034870727532</v>
       </c>
       <c r="F12">
-        <v>1.946304730412024</v>
+        <v>1.482090805978544</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
+        <v>0.05816949740977861</v>
+      </c>
+      <c r="I12">
+        <v>0.001995113939774029</v>
+      </c>
+      <c r="J12">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I12">
-        <v>1.176057238920237</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
       <c r="K12">
-        <v>2.47720270838559</v>
+        <v>0.7878495417451035</v>
       </c>
       <c r="L12">
-        <v>0.4742520621247905</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>2.042618316687282</v>
       </c>
       <c r="N12">
-        <v>1.322209968533755</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.5795454307468404</v>
+      </c>
+      <c r="P12">
+        <v>1.123140840153106</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.459929578976187</v>
+        <v>1.606096075491962</v>
       </c>
       <c r="C13">
-        <v>0.2705168300514629</v>
+        <v>0.4213157234533469</v>
       </c>
       <c r="D13">
-        <v>0.05036487074885443</v>
+        <v>0.069957544135967</v>
       </c>
       <c r="E13">
-        <v>0.05159895431982875</v>
+        <v>0.03154564348484534</v>
       </c>
       <c r="F13">
-        <v>1.938754952223093</v>
+        <v>1.329916956279433</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
+        <v>0.1135300005370254</v>
+      </c>
+      <c r="I13">
+        <v>0.001766222435112041</v>
+      </c>
+      <c r="J13">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I13">
-        <v>1.172738807097943</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
       <c r="K13">
-        <v>2.463127716507557</v>
+        <v>0.700104388401499</v>
       </c>
       <c r="L13">
-        <v>0.4717096894346895</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.975133313195045</v>
       </c>
       <c r="N13">
-        <v>1.323471902764865</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.4049029072217394</v>
+      </c>
+      <c r="P13">
+        <v>1.025583269907941</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.415043825259318</v>
+        <v>1.561227689001527</v>
       </c>
       <c r="C14">
-        <v>0.265375662992696</v>
+        <v>0.3943994193525668</v>
       </c>
       <c r="D14">
-        <v>0.05065212023693455</v>
+        <v>0.0741485309721952</v>
       </c>
       <c r="E14">
-        <v>0.05090510733194975</v>
+        <v>0.01410580965254959</v>
       </c>
       <c r="F14">
-        <v>1.914250185389989</v>
+        <v>1.214960882051741</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
+        <v>0.1626484711837151</v>
+      </c>
+      <c r="I14">
+        <v>0.001616107158998403</v>
+      </c>
+      <c r="J14">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I14">
-        <v>1.161986812362969</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
       <c r="K14">
-        <v>2.417324184889253</v>
+        <v>0.6376614917844066</v>
       </c>
       <c r="L14">
-        <v>0.4634402995289406</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.900460032610823</v>
       </c>
       <c r="N14">
-        <v>1.327653208308817</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.2951619847612577</v>
+      </c>
+      <c r="P14">
+        <v>0.9710072702325334</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.387621747338869</v>
+        <v>1.538652080707067</v>
       </c>
       <c r="C15">
-        <v>0.2622354547460759</v>
+        <v>0.385602761371814</v>
       </c>
       <c r="D15">
-        <v>0.05082811108692731</v>
+        <v>0.0751416018160711</v>
       </c>
       <c r="E15">
-        <v>0.05048177644172469</v>
+        <v>0.01380251508051877</v>
       </c>
       <c r="F15">
-        <v>1.899328656338426</v>
+        <v>1.181182663429553</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
+        <v>0.1750833666060316</v>
+      </c>
+      <c r="I15">
+        <v>0.001659796587778928</v>
+      </c>
+      <c r="J15">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I15">
-        <v>1.155454059072298</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
       <c r="K15">
-        <v>2.389342132833974</v>
+        <v>0.6204953911704365</v>
       </c>
       <c r="L15">
-        <v>0.4583915547832333</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.869023313416278</v>
       </c>
       <c r="N15">
-        <v>1.330264452731171</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.2688651476859008</v>
+      </c>
+      <c r="P15">
+        <v>0.9605950726636578</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.2315227599168</v>
+        <v>1.439405514466642</v>
       </c>
       <c r="C16">
-        <v>0.2443687969964259</v>
+        <v>0.3606776338828865</v>
       </c>
       <c r="D16">
-        <v>0.05183736885494206</v>
+        <v>0.07307160923654266</v>
       </c>
       <c r="E16">
-        <v>0.04808049520261903</v>
+        <v>0.0124094528138583</v>
       </c>
       <c r="F16">
-        <v>1.815120188094269</v>
+        <v>1.137798119867838</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
+        <v>0.1620766334147987</v>
+      </c>
+      <c r="I16">
+        <v>0.001580567192302595</v>
+      </c>
+      <c r="J16">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I16">
-        <v>1.118802548455861</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
       <c r="K16">
-        <v>2.230064021396913</v>
+        <v>0.6090653397746024</v>
       </c>
       <c r="L16">
-        <v>0.4297005258956688</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.749074305045468</v>
       </c>
       <c r="N16">
-        <v>1.3459743608895</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.2553201455611998</v>
+      </c>
+      <c r="P16">
+        <v>0.984988021736136</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.136637866134492</v>
+        <v>1.387091661149583</v>
       </c>
       <c r="C17">
-        <v>0.2335146790860421</v>
+        <v>0.3558586069672458</v>
       </c>
       <c r="D17">
-        <v>0.05245724896675874</v>
+        <v>0.06918233085047376</v>
       </c>
       <c r="E17">
-        <v>0.04662839311903255</v>
+        <v>0.01527230322663886</v>
       </c>
       <c r="F17">
-        <v>1.764565714898893</v>
+        <v>1.164767039871208</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
+        <v>0.1241895583401345</v>
+      </c>
+      <c r="I17">
+        <v>0.001657613023485993</v>
+      </c>
+      <c r="J17">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I17">
-        <v>1.096987431364838</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
       <c r="K17">
-        <v>2.133251597520854</v>
+        <v>0.6327867405788936</v>
       </c>
       <c r="L17">
-        <v>0.4123026860088146</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.696722048963522</v>
       </c>
       <c r="N17">
-        <v>1.356254851805616</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.2996603848784147</v>
+      </c>
+      <c r="P17">
+        <v>1.031331743978164</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.082363201999954</v>
+        <v>1.371637964664302</v>
       </c>
       <c r="C18">
-        <v>0.2273076632739759</v>
+        <v>0.3668765340824791</v>
       </c>
       <c r="D18">
-        <v>0.05281409153226058</v>
+        <v>0.06385569453477302</v>
       </c>
       <c r="E18">
-        <v>0.0458005204238674</v>
+        <v>0.04864214367665198</v>
       </c>
       <c r="F18">
-        <v>1.735872667322354</v>
+        <v>1.260742873363156</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
+        <v>0.07133695982033572</v>
+      </c>
+      <c r="I18">
+        <v>0.001454059622978399</v>
+      </c>
+      <c r="J18">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I18">
-        <v>1.084674052693799</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
       <c r="K18">
-        <v>2.077875156852116</v>
+        <v>0.6939863929245078</v>
       </c>
       <c r="L18">
-        <v>0.4023659345952382</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.697288086633137</v>
       </c>
       <c r="N18">
-        <v>1.362395563008562</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.4127385773148546</v>
+      </c>
+      <c r="P18">
+        <v>1.112127820158079</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.06403638611107</v>
+        <v>1.380759069615749</v>
       </c>
       <c r="C19">
-        <v>0.225211966880039</v>
+        <v>0.3924462903785866</v>
       </c>
       <c r="D19">
-        <v>0.05293496779951568</v>
+        <v>0.05905255296051592</v>
       </c>
       <c r="E19">
-        <v>0.04552144222559562</v>
+        <v>0.1444402186514573</v>
       </c>
       <c r="F19">
-        <v>1.726221778739358</v>
+        <v>1.402314409773865</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
+        <v>0.02621208967332223</v>
+      </c>
+      <c r="I19">
+        <v>0.001549439074755021</v>
+      </c>
+      <c r="J19">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I19">
-        <v>1.080544071098757</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
       <c r="K19">
-        <v>2.059176347014784</v>
+        <v>0.7793139526307442</v>
       </c>
       <c r="L19">
-        <v>0.3990131229703167</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.737622580537476</v>
       </c>
       <c r="N19">
-        <v>1.364513009530185</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.5943464752191616</v>
+      </c>
+      <c r="P19">
+        <v>1.222370894204317</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.146706937733711</v>
+        <v>1.470100749162441</v>
       </c>
       <c r="C20">
-        <v>0.2346663249363132</v>
+        <v>0.4546558766633098</v>
       </c>
       <c r="D20">
-        <v>0.05239123100023946</v>
+        <v>0.05497630417650257</v>
       </c>
       <c r="E20">
-        <v>0.04678220400718303</v>
+        <v>0.4072197486569777</v>
       </c>
       <c r="F20">
-        <v>1.769907054870501</v>
+        <v>1.681206529220063</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
+        <v>0.001168319146743091</v>
+      </c>
+      <c r="I20">
+        <v>0.00167677487866591</v>
+      </c>
+      <c r="J20">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I20">
-        <v>1.09928519790698</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
       <c r="K20">
-        <v>2.143525112849574</v>
+        <v>0.939214473104748</v>
       </c>
       <c r="L20">
-        <v>0.4141473663259916</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.894435164037446</v>
       </c>
       <c r="N20">
-        <v>1.355136725833233</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.9627944160620032</v>
+      </c>
+      <c r="P20">
+        <v>1.417342374848602</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.42821277668952</v>
+        <v>1.663010651733373</v>
       </c>
       <c r="C21">
-        <v>0.2668838732751624</v>
+        <v>0.5196365626111401</v>
       </c>
       <c r="D21">
-        <v>0.05056773948086857</v>
+        <v>0.05581216577081527</v>
       </c>
       <c r="E21">
-        <v>0.05110855658576696</v>
+        <v>0.4868420653081671</v>
       </c>
       <c r="F21">
-        <v>1.921429287251726</v>
+        <v>1.854311215272773</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
+        <v>0.002891211479415512</v>
+      </c>
+      <c r="I21">
+        <v>0.002615860846204576</v>
+      </c>
+      <c r="J21">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I21">
-        <v>1.165133784111163</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
       <c r="K21">
-        <v>2.430762244115158</v>
+        <v>1.015251221834994</v>
       </c>
       <c r="L21">
-        <v>0.4658657539631292</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>2.148282818875089</v>
       </c>
       <c r="N21">
-        <v>1.326414569343697</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.116927740027165</v>
+      </c>
+      <c r="P21">
+        <v>1.439657581400454</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.615344917026903</v>
+        <v>1.792000790293173</v>
       </c>
       <c r="C22">
-        <v>0.2883298199045612</v>
+        <v>0.5591146443249215</v>
       </c>
       <c r="D22">
-        <v>0.04937796531557126</v>
+        <v>0.05641068706933083</v>
       </c>
       <c r="E22">
-        <v>0.05400979689920504</v>
+        <v>0.5239334604980357</v>
       </c>
       <c r="F22">
-        <v>2.024353335540312</v>
+        <v>1.962732757656681</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
+        <v>0.004419384278344429</v>
+      </c>
+      <c r="I22">
+        <v>0.003447891960140836</v>
+      </c>
+      <c r="J22">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I22">
-        <v>1.210516048004379</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
       <c r="K22">
-        <v>2.621734133759219</v>
+        <v>1.062580559118871</v>
       </c>
       <c r="L22">
-        <v>0.5003922809383994</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>2.313171805797651</v>
       </c>
       <c r="N22">
-        <v>1.309860454448724</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.200618850372194</v>
+      </c>
+      <c r="P22">
+        <v>1.449392606002036</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.515156228590797</v>
+        <v>1.72703026830834</v>
       </c>
       <c r="C23">
-        <v>0.2768444603125459</v>
+        <v>0.5365143909839674</v>
       </c>
       <c r="D23">
-        <v>0.05001282293220299</v>
+        <v>0.05604424702842792</v>
       </c>
       <c r="E23">
-        <v>0.05245417703543609</v>
+        <v>0.5039936463995858</v>
       </c>
       <c r="F23">
-        <v>1.969040220146098</v>
+        <v>1.910145990528093</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
+        <v>0.003573394720422618</v>
+      </c>
+      <c r="I23">
+        <v>0.002671925624484928</v>
+      </c>
+      <c r="J23">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I23">
-        <v>1.186066549564515</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
       <c r="K23">
-        <v>2.51948580080699</v>
+        <v>1.041424646436411</v>
       </c>
       <c r="L23">
-        <v>0.48189320632261</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>2.226910985480174</v>
       </c>
       <c r="N23">
-        <v>1.31848301598221</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.156288331219173</v>
+      </c>
+      <c r="P23">
+        <v>1.449020931075651</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.142153856104699</v>
+        <v>1.475503799485153</v>
       </c>
       <c r="C24">
-        <v>0.234145563300018</v>
+        <v>0.4548016213159087</v>
       </c>
       <c r="D24">
-        <v>0.05242107626570736</v>
+        <v>0.05466888391039326</v>
       </c>
       <c r="E24">
-        <v>0.04671264451526724</v>
+        <v>0.429350674347468</v>
       </c>
       <c r="F24">
-        <v>1.767491083311199</v>
+        <v>1.705072788352624</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
+        <v>0.001145775476297128</v>
+      </c>
+      <c r="I24">
+        <v>0.001200872214104365</v>
+      </c>
+      <c r="J24">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I24">
-        <v>1.098245668971188</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
       <c r="K24">
-        <v>2.138879582666419</v>
+        <v>0.9555586758545331</v>
       </c>
       <c r="L24">
-        <v>0.4133131834344681</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.899583204168721</v>
       </c>
       <c r="N24">
-        <v>1.355641515226964</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.9887109905132974</v>
+      </c>
+      <c r="P24">
+        <v>1.440722908392928</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.751078772212736</v>
+        <v>1.205771069886254</v>
       </c>
       <c r="C25">
-        <v>0.1894314002920225</v>
+        <v>0.3692863456921884</v>
       </c>
       <c r="D25">
-        <v>0.05503085562678756</v>
+        <v>0.05303692480341482</v>
       </c>
       <c r="E25">
-        <v>0.04079599725922733</v>
+        <v>0.3500314157625795</v>
       </c>
       <c r="F25">
-        <v>1.56456759646052</v>
+        <v>1.48929801981059</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
+        <v>2.343724479514364E-05</v>
+      </c>
+      <c r="I25">
+        <v>0.001585543060814487</v>
+      </c>
+      <c r="J25">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I25">
-        <v>1.012343470071187</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
       <c r="K25">
-        <v>1.739851191426453</v>
+        <v>0.8648942961789317</v>
       </c>
       <c r="L25">
-        <v>0.3419673530293466</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.550648097371806</v>
       </c>
       <c r="N25">
-        <v>1.404337645354616</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>0.8095199457193232</v>
+      </c>
+      <c r="P25">
+        <v>1.43379179384209</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_51/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_51/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.017150806320387</v>
+        <v>0.8997824162099164</v>
       </c>
       <c r="C2">
-        <v>0.3046104182824934</v>
+        <v>0.3527280013574057</v>
       </c>
       <c r="D2">
-        <v>0.05161420773745995</v>
+        <v>0.05049360186926322</v>
       </c>
       <c r="E2">
-        <v>0.2920916513830321</v>
+        <v>0.3000714270850722</v>
       </c>
       <c r="F2">
-        <v>1.347146057129734</v>
+        <v>1.153013969673083</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0003001778822451229</v>
+        <v>0.0001710745331755525</v>
       </c>
       <c r="I2">
-        <v>0.002576240207203817</v>
+        <v>0.001623473480050208</v>
       </c>
       <c r="J2">
-        <v>0.02672462365074526</v>
+        <v>0.07607150459155762</v>
       </c>
       <c r="K2">
-        <v>0.8094687236862512</v>
+        <v>0.6513517217891192</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2913992492571325</v>
       </c>
       <c r="M2">
-        <v>1.300554613196681</v>
+        <v>0.2025631050444794</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.679347097586799</v>
+        <v>1.248257343417322</v>
       </c>
       <c r="P2">
-        <v>1.442235782761912</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.6699460243174613</v>
+      </c>
+      <c r="R2">
+        <v>1.241799198942864</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8841223846640958</v>
+        <v>0.7863114189724172</v>
       </c>
       <c r="C3">
-        <v>0.2636581879789333</v>
+        <v>0.3039708335635112</v>
       </c>
       <c r="D3">
-        <v>0.05063362426287732</v>
+        <v>0.04876699794260375</v>
       </c>
       <c r="E3">
-        <v>0.2533150685854224</v>
+        <v>0.2606241364959203</v>
       </c>
       <c r="F3">
-        <v>1.245082880136351</v>
+        <v>1.07551336121702</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.001094516278071112</v>
+        <v>0.0007892085026763862</v>
       </c>
       <c r="I3">
-        <v>0.004420015176534786</v>
+        <v>0.002802662895902142</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142331</v>
       </c>
       <c r="K3">
-        <v>0.7667101858809389</v>
+        <v>0.6260407551800355</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.288988197406141</v>
       </c>
       <c r="M3">
-        <v>1.12959336126508</v>
+        <v>0.1871136225063736</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.5909480869869554</v>
+        <v>1.086385898926295</v>
       </c>
       <c r="P3">
-        <v>1.4417113168751</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.5834760452294105</v>
+      </c>
+      <c r="R3">
+        <v>1.259346267386533</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8022934278695288</v>
+        <v>0.7162310133214191</v>
       </c>
       <c r="C4">
-        <v>0.2389319123796696</v>
+        <v>0.2745763108707138</v>
       </c>
       <c r="D4">
-        <v>0.04999554357849689</v>
+        <v>0.04768962776391916</v>
       </c>
       <c r="E4">
-        <v>0.2296342835690268</v>
+        <v>0.2365015800221073</v>
       </c>
       <c r="F4">
-        <v>1.182949873532863</v>
+        <v>1.028225156067066</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.001856794224090796</v>
+        <v>0.001416328149089541</v>
       </c>
       <c r="I4">
-        <v>0.005918869702441043</v>
+        <v>0.0038162211370798</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153714</v>
       </c>
       <c r="K4">
-        <v>0.7405259042846524</v>
+        <v>0.6104290121258344</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2872508045251934</v>
       </c>
       <c r="M4">
-        <v>1.024927914194251</v>
+        <v>0.1783616408587143</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.5367579279456578</v>
+        <v>0.9871049021200236</v>
       </c>
       <c r="P4">
-        <v>1.44146998115886</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.5304258325689304</v>
+      </c>
+      <c r="R4">
+        <v>1.270218402440953</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7679587462504571</v>
+        <v>0.6867274156649614</v>
       </c>
       <c r="C5">
-        <v>0.2293061122756228</v>
+        <v>0.2630837571203131</v>
       </c>
       <c r="D5">
-        <v>0.04973441844445681</v>
+        <v>0.04726883411478866</v>
       </c>
       <c r="E5">
-        <v>0.220040267616362</v>
+        <v>0.2267187429951747</v>
       </c>
       <c r="F5">
-        <v>1.156393343150796</v>
+        <v>1.007837390061454</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.002234630320566477</v>
+        <v>0.001732382663762522</v>
       </c>
       <c r="I5">
-        <v>0.006699994977334534</v>
+        <v>0.00439127133239392</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153728</v>
       </c>
       <c r="K5">
-        <v>0.7288210643391579</v>
+        <v>0.6031789085613539</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.28609643500495</v>
       </c>
       <c r="M5">
-        <v>0.9818936321908893</v>
+        <v>0.1747072427442582</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.5145993607500472</v>
+        <v>0.9462526757020555</v>
       </c>
       <c r="P5">
-        <v>1.440091780675942</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.5087275206640598</v>
+      </c>
+      <c r="R5">
+        <v>1.273665018263856</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.761101588647648</v>
+        <v>0.6807977120101043</v>
       </c>
       <c r="C6">
-        <v>0.2281487605389287</v>
+        <v>0.2616248750099999</v>
       </c>
       <c r="D6">
-        <v>0.04970052277679926</v>
+        <v>0.04722677712255141</v>
       </c>
       <c r="E6">
-        <v>0.2184846831050606</v>
+        <v>0.225129015882942</v>
       </c>
       <c r="F6">
-        <v>1.150333654155901</v>
+        <v>1.003013758807711</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.002303408375371685</v>
+        <v>0.001790122543545047</v>
       </c>
       <c r="I6">
-        <v>0.006943295136416339</v>
+        <v>0.004613061839362054</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142324</v>
       </c>
       <c r="K6">
-        <v>0.7255992433674692</v>
+        <v>0.6009150205872942</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2854357587132128</v>
       </c>
       <c r="M6">
-        <v>0.9742118542435207</v>
+        <v>0.1737812080790206</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.5108114960334049</v>
+        <v>0.9389718976168524</v>
       </c>
       <c r="P6">
-        <v>1.438282433735687</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.5050225835948154</v>
+      </c>
+      <c r="R6">
+        <v>1.273013347172522</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.79866888604937</v>
+        <v>0.713029257078091</v>
       </c>
       <c r="C7">
-        <v>0.2399935458414717</v>
+        <v>0.2756323806071919</v>
       </c>
       <c r="D7">
-        <v>0.05002014326048965</v>
+        <v>0.04776249488064011</v>
       </c>
       <c r="E7">
-        <v>0.2296029756335898</v>
+        <v>0.2364613948989387</v>
       </c>
       <c r="F7">
-        <v>1.178061221044558</v>
+        <v>1.024015423678037</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.001866866129013545</v>
+        <v>0.001424570103437439</v>
       </c>
       <c r="I7">
-        <v>0.006206986524366798</v>
+        <v>0.004137281057861486</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.0759357156874878</v>
       </c>
       <c r="K7">
-        <v>0.7368717648504202</v>
+        <v>0.6074459359564415</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2859890351444605</v>
       </c>
       <c r="M7">
-        <v>1.022868609887809</v>
+        <v>0.1773903918921178</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.5361597150163675</v>
+        <v>0.9851895919848914</v>
       </c>
       <c r="P7">
-        <v>1.437143459811161</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.5298534749128194</v>
+      </c>
+      <c r="R7">
+        <v>1.266945861459163</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9670718205498758</v>
+        <v>0.8569985554516677</v>
       </c>
       <c r="C8">
-        <v>0.2919859171556141</v>
+        <v>0.3374182319908527</v>
       </c>
       <c r="D8">
-        <v>0.05132504678875982</v>
+        <v>0.05001422675553258</v>
       </c>
       <c r="E8">
-        <v>0.2788201252497373</v>
+        <v>0.2865677422135278</v>
       </c>
       <c r="F8">
-        <v>1.305821252139083</v>
+        <v>1.121031285734517</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.00051839370754303</v>
+        <v>0.0003334507983319135</v>
       </c>
       <c r="I8">
-        <v>0.003458546025285614</v>
+        <v>0.00233976666893998</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284014</v>
       </c>
       <c r="K8">
-        <v>0.7900732265583983</v>
+        <v>0.6388493356567579</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2890715197646685</v>
       </c>
       <c r="M8">
-        <v>1.239545963036903</v>
+        <v>0.1957845505332791</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.6484405177754553</v>
+        <v>1.190583811397772</v>
       </c>
       <c r="P8">
-        <v>1.436394904769571</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.6397417395656859</v>
+      </c>
+      <c r="R8">
+        <v>1.243560024890954</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.302327431527829</v>
+        <v>1.141425079822341</v>
       </c>
       <c r="C9">
-        <v>0.3956034718523256</v>
+        <v>0.4612264105371935</v>
       </c>
       <c r="D9">
-        <v>0.05353948299038436</v>
+        <v>0.05414319112185595</v>
       </c>
       <c r="E9">
-        <v>0.3764458612019865</v>
+        <v>0.3856756519740401</v>
       </c>
       <c r="F9">
-        <v>1.569536946608892</v>
+        <v>1.32128994708772</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.000220747203667937</v>
+        <v>0.0003076905799281882</v>
       </c>
       <c r="I9">
-        <v>0.0007930332348013991</v>
+        <v>0.0008127148880374691</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>0.9015038354265315</v>
+        <v>0.7051684064348862</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2951533003721423</v>
       </c>
       <c r="M9">
-        <v>1.670491918338513</v>
+        <v>0.23960935786981</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.8702776946377071</v>
+        <v>1.597452895903018</v>
       </c>
       <c r="P9">
-        <v>1.443400395221047</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.8564421870481453</v>
+      </c>
+      <c r="R9">
+        <v>1.204389731203683</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.543959393543105</v>
+        <v>1.346374807049443</v>
       </c>
       <c r="C10">
-        <v>0.4710660114389498</v>
+        <v>0.5510621427408751</v>
       </c>
       <c r="D10">
-        <v>0.05527744110416855</v>
+        <v>0.05769989489748184</v>
       </c>
       <c r="E10">
-        <v>0.4195931971626194</v>
+        <v>0.4293241885573238</v>
       </c>
       <c r="F10">
-        <v>1.741955181893474</v>
+        <v>1.450611891218273</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.001700904751989363</v>
+        <v>0.001812681502480373</v>
       </c>
       <c r="I10">
-        <v>0.001170521315286166</v>
+        <v>0.001562647728354349</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>0.9682900752912005</v>
+        <v>0.7422322184397672</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2942247111660592</v>
       </c>
       <c r="M10">
-        <v>1.981558387823412</v>
+        <v>0.2710267187651567</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.9991289296202979</v>
+        <v>1.890698626912553</v>
       </c>
       <c r="P10">
-        <v>1.4267198597678</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.9816906641969894</v>
+      </c>
+      <c r="R10">
+        <v>1.161151328959903</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.61968727098278</v>
+        <v>1.424039334734346</v>
       </c>
       <c r="C11">
-        <v>0.4706390477878131</v>
+        <v>0.5472092235272896</v>
       </c>
       <c r="D11">
-        <v>0.05970814103242716</v>
+        <v>0.06530831081726518</v>
       </c>
       <c r="E11">
-        <v>0.2216640303905706</v>
+        <v>0.2285221427993136</v>
       </c>
       <c r="F11">
-        <v>1.61503073322281</v>
+        <v>1.344908185108324</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0198821819921875</v>
+        <v>0.01996373825634379</v>
       </c>
       <c r="I11">
-        <v>0.001965124153145759</v>
+        <v>0.002496158853351638</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>0.8730326150356191</v>
+        <v>0.667929604030725</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2616707550789101</v>
       </c>
       <c r="M11">
-        <v>2.049564692564928</v>
+        <v>0.2492626876758166</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.7714114403263395</v>
+        <v>1.960329395739677</v>
       </c>
       <c r="P11">
-        <v>1.247827677731465</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.7564817128157912</v>
+      </c>
+      <c r="R11">
+        <v>1.028930340628598</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.637368244744636</v>
+        <v>1.450919035983276</v>
       </c>
       <c r="C12">
-        <v>0.4523793837818744</v>
+        <v>0.5230094360543092</v>
       </c>
       <c r="D12">
-        <v>0.0645631748824087</v>
+        <v>0.07210835756295353</v>
       </c>
       <c r="E12">
-        <v>0.1006034870727532</v>
+        <v>0.1051380469117653</v>
       </c>
       <c r="F12">
-        <v>1.482090805978544</v>
+        <v>1.237122747786387</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.05816949740977861</v>
+        <v>0.05823916322836453</v>
       </c>
       <c r="I12">
-        <v>0.001995113939774029</v>
+        <v>0.002534287901378995</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>0.7878495417451035</v>
+        <v>0.6046687282118128</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2375706296941651</v>
       </c>
       <c r="M12">
-        <v>2.042618316687282</v>
+        <v>0.2264085948849015</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.5795454307468404</v>
+        <v>1.958484131859137</v>
       </c>
       <c r="P12">
-        <v>1.123140840153106</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.5672816175751549</v>
+      </c>
+      <c r="R12">
+        <v>0.9444774632441835</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.606096075491962</v>
+        <v>1.435584437855965</v>
       </c>
       <c r="C13">
-        <v>0.4213157234533469</v>
+        <v>0.4838331420884572</v>
       </c>
       <c r="D13">
-        <v>0.069957544135967</v>
+        <v>0.07865593732559262</v>
       </c>
       <c r="E13">
-        <v>0.03154564348484534</v>
+        <v>0.03403752664936732</v>
       </c>
       <c r="F13">
-        <v>1.329916956279433</v>
+        <v>1.115308058801673</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1135300005370254</v>
+        <v>0.1135915322653744</v>
       </c>
       <c r="I13">
-        <v>0.001766222435112041</v>
+        <v>0.002289000054078727</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.1026584643119293</v>
       </c>
       <c r="K13">
-        <v>0.700104388401499</v>
+        <v>0.5416528355916341</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2162835382129309</v>
       </c>
       <c r="M13">
-        <v>1.975133313195045</v>
+        <v>0.2000838359126362</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.4049029072217394</v>
+        <v>1.899240863588972</v>
       </c>
       <c r="P13">
-        <v>1.025583269907941</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.3954791149017893</v>
+      </c>
+      <c r="R13">
+        <v>0.8856104903588928</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.561227689001527</v>
+        <v>1.404930465369659</v>
       </c>
       <c r="C14">
-        <v>0.3943994193525668</v>
+        <v>0.4503551896259523</v>
       </c>
       <c r="D14">
-        <v>0.0741485309721952</v>
+        <v>0.08325306264951848</v>
       </c>
       <c r="E14">
-        <v>0.01410580965254959</v>
+        <v>0.01533006305763429</v>
       </c>
       <c r="F14">
-        <v>1.214960882051741</v>
+        <v>1.023673374641376</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1626484711837151</v>
+        <v>0.1627006648331246</v>
       </c>
       <c r="I14">
-        <v>0.001616107158998403</v>
+        <v>0.002118880647669741</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>0.6376614917844066</v>
+        <v>0.4975574685014763</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2023504006110421</v>
       </c>
       <c r="M14">
-        <v>1.900460032610823</v>
+        <v>0.1803382879198097</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.2951619847612577</v>
+        <v>1.831702349421562</v>
       </c>
       <c r="P14">
-        <v>0.9710072702325334</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.287710150248536</v>
+      </c>
+      <c r="R14">
+        <v>0.8568233562711391</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.538652080707067</v>
+        <v>1.387303912290776</v>
       </c>
       <c r="C15">
-        <v>0.385602761371814</v>
+        <v>0.4395170628650362</v>
       </c>
       <c r="D15">
-        <v>0.0751416018160711</v>
+        <v>0.08421664410163743</v>
       </c>
       <c r="E15">
-        <v>0.01380251508051877</v>
+        <v>0.01475583949111825</v>
       </c>
       <c r="F15">
-        <v>1.181182663429553</v>
+        <v>0.9969085890483171</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1750833666060316</v>
+        <v>0.1751305877424727</v>
       </c>
       <c r="I15">
-        <v>0.001659796587778928</v>
+        <v>0.002167108785244842</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657191606</v>
       </c>
       <c r="K15">
-        <v>0.6204953911704365</v>
+        <v>0.4857160629771968</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1989811587195476</v>
       </c>
       <c r="M15">
-        <v>1.869023313416278</v>
+        <v>0.1745055417023877</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.2688651476859008</v>
+        <v>1.802677250428644</v>
       </c>
       <c r="P15">
-        <v>0.9605950726636578</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2619389769225506</v>
+      </c>
+      <c r="R15">
+        <v>0.852925610967695</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.439405514466642</v>
+        <v>1.300572460797213</v>
       </c>
       <c r="C16">
-        <v>0.3606776338828865</v>
+        <v>0.4103004160526496</v>
       </c>
       <c r="D16">
-        <v>0.07307160923654266</v>
+        <v>0.08100057801879501</v>
       </c>
       <c r="E16">
-        <v>0.0124094528138583</v>
+        <v>0.0135841786585964</v>
       </c>
       <c r="F16">
-        <v>1.137798119867838</v>
+        <v>0.9649472129288341</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1620766334147987</v>
+        <v>0.1620913633195897</v>
       </c>
       <c r="I16">
-        <v>0.001580567192302595</v>
+        <v>0.001981810409958484</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926776106</v>
       </c>
       <c r="K16">
-        <v>0.6090653397746024</v>
+        <v>0.4812508580425856</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2014436372535435</v>
       </c>
       <c r="M16">
-        <v>1.749074305045468</v>
+        <v>0.16715517585029</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.2553201455611998</v>
+        <v>1.688619938614863</v>
       </c>
       <c r="P16">
-        <v>0.984988021736136</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2489797705796555</v>
+      </c>
+      <c r="R16">
+        <v>0.8789512815527729</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.387091661149583</v>
+        <v>1.25032108165442</v>
       </c>
       <c r="C17">
-        <v>0.3558586069672458</v>
+        <v>0.4056305901836197</v>
       </c>
       <c r="D17">
-        <v>0.06918233085047376</v>
+        <v>0.07607757713153518</v>
       </c>
       <c r="E17">
-        <v>0.01527230322663886</v>
+        <v>0.01725907217752365</v>
       </c>
       <c r="F17">
-        <v>1.164767039871208</v>
+        <v>0.9886526754591074</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1241895583401345</v>
+        <v>0.124184304864059</v>
       </c>
       <c r="I17">
-        <v>0.001657613023485993</v>
+        <v>0.001983689700679747</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234339</v>
       </c>
       <c r="K17">
-        <v>0.6327867405788936</v>
+        <v>0.5009186619167707</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2109869567214346</v>
       </c>
       <c r="M17">
-        <v>1.696722048963522</v>
+        <v>0.1716028997584438</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.2996603848784147</v>
+        <v>1.637020092452929</v>
       </c>
       <c r="P17">
-        <v>1.031331743978164</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2928225452211706</v>
+      </c>
+      <c r="R17">
+        <v>0.9136882147565295</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.371637964664302</v>
+        <v>1.228081474806572</v>
       </c>
       <c r="C18">
-        <v>0.3668765340824791</v>
+        <v>0.4206582178368308</v>
       </c>
       <c r="D18">
-        <v>0.06385569453477302</v>
+        <v>0.06953010679277583</v>
       </c>
       <c r="E18">
-        <v>0.04864214367665198</v>
+        <v>0.05216854769383161</v>
       </c>
       <c r="F18">
-        <v>1.260742873363156</v>
+        <v>1.067436591856335</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07133695982033572</v>
+        <v>0.07133966458464869</v>
       </c>
       <c r="I18">
-        <v>0.001454059622978399</v>
+        <v>0.001710422978056236</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.07595859146320727</v>
       </c>
       <c r="K18">
-        <v>0.6939863929245078</v>
+        <v>0.5471337008510986</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2292999212266835</v>
       </c>
       <c r="M18">
-        <v>1.697288086633137</v>
+        <v>0.1876458794947666</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.4127385773148546</v>
+        <v>1.633991613714784</v>
       </c>
       <c r="P18">
-        <v>1.112127820158079</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.4043180078919875</v>
+      </c>
+      <c r="R18">
+        <v>0.9678688598398573</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.380759069615749</v>
+        <v>1.224552413740469</v>
       </c>
       <c r="C19">
-        <v>0.3924462903785866</v>
+        <v>0.4532662428680965</v>
       </c>
       <c r="D19">
-        <v>0.05905255296051592</v>
+        <v>0.06330681530591065</v>
       </c>
       <c r="E19">
-        <v>0.1444402186514573</v>
+        <v>0.1501590433922182</v>
       </c>
       <c r="F19">
-        <v>1.402314409773865</v>
+        <v>1.18178349327934</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02621208967332223</v>
+        <v>0.02625365683151415</v>
       </c>
       <c r="I19">
-        <v>0.001549439074755021</v>
+        <v>0.001863859415621505</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.07592634768438788</v>
       </c>
       <c r="K19">
-        <v>0.7793139526307442</v>
+        <v>0.609718907527018</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2527664678779971</v>
       </c>
       <c r="M19">
-        <v>1.737622580537476</v>
+        <v>0.2111570521582919</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.5943464752191616</v>
+        <v>1.667671463489626</v>
       </c>
       <c r="P19">
-        <v>1.222370894204317</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.5833966843742715</v>
+      </c>
+      <c r="R19">
+        <v>1.040138034222984</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.470100749162441</v>
+        <v>1.283629208362328</v>
       </c>
       <c r="C20">
-        <v>0.4546558766633098</v>
+        <v>0.5308838169928833</v>
       </c>
       <c r="D20">
-        <v>0.05497630417650257</v>
+        <v>0.05710786807889789</v>
       </c>
       <c r="E20">
-        <v>0.4072197486569777</v>
+        <v>0.4168066992116195</v>
       </c>
       <c r="F20">
-        <v>1.681206529220063</v>
+        <v>1.403555843949576</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.001168319146743091</v>
+        <v>0.001285633760509164</v>
       </c>
       <c r="I20">
-        <v>0.00167677487866591</v>
+        <v>0.002158583568606431</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823835525</v>
       </c>
       <c r="K20">
-        <v>0.939214473104748</v>
+        <v>0.7233397710429159</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2911958373064039</v>
       </c>
       <c r="M20">
-        <v>1.894435164037446</v>
+        <v>0.2589771861874581</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.9627944160620032</v>
+        <v>1.808806075800277</v>
       </c>
       <c r="P20">
-        <v>1.417342374848602</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.9464119540678197</v>
+      </c>
+      <c r="R20">
+        <v>1.162514321446892</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.663010651733373</v>
+        <v>1.444349333973548</v>
       </c>
       <c r="C21">
-        <v>0.5196365626111401</v>
+        <v>0.6089347238639391</v>
       </c>
       <c r="D21">
-        <v>0.05581216577081527</v>
+        <v>0.0589162702738264</v>
       </c>
       <c r="E21">
-        <v>0.4868420653081671</v>
+        <v>0.4973064188975727</v>
       </c>
       <c r="F21">
-        <v>1.854311215272773</v>
+        <v>1.535422894282405</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.002891211479415512</v>
+        <v>0.002969314250925503</v>
       </c>
       <c r="I21">
-        <v>0.002615860846204576</v>
+        <v>0.003185664219166995</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752089</v>
       </c>
       <c r="K21">
-        <v>1.015251221834994</v>
+        <v>0.7697685677308215</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2967086403013681</v>
       </c>
       <c r="M21">
-        <v>2.148282818875089</v>
+        <v>0.2912588172697497</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.116927740027165</v>
+        <v>2.046673652945941</v>
       </c>
       <c r="P21">
-        <v>1.439657581400454</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.096887583383577</v>
+      </c>
+      <c r="R21">
+        <v>1.153310293609955</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.792000790293173</v>
+        <v>1.552409892070614</v>
       </c>
       <c r="C22">
-        <v>0.5591146443249215</v>
+        <v>0.6564609435162936</v>
       </c>
       <c r="D22">
-        <v>0.05641068706933083</v>
+        <v>0.06023067280451855</v>
       </c>
       <c r="E22">
-        <v>0.5239334604980357</v>
+        <v>0.5347284421548295</v>
       </c>
       <c r="F22">
-        <v>1.962732757656681</v>
+        <v>1.617990624875588</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.004419384278344429</v>
+        <v>0.004426661345785732</v>
       </c>
       <c r="I22">
-        <v>0.003447891960140836</v>
+        <v>0.003889768198801491</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079828149</v>
       </c>
       <c r="K22">
-        <v>1.062580559118871</v>
+        <v>0.7985871177441553</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2994345497490372</v>
       </c>
       <c r="M22">
-        <v>2.313171805797651</v>
+        <v>0.312571434729584</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.200618850372194</v>
+        <v>2.20117405874737</v>
       </c>
       <c r="P22">
-        <v>1.449392606002036</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.178310556931038</v>
+      </c>
+      <c r="R22">
+        <v>1.144317870518321</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.72703026830834</v>
+        <v>1.498146026635311</v>
       </c>
       <c r="C23">
-        <v>0.5365143909839674</v>
+        <v>0.6295103141507923</v>
       </c>
       <c r="D23">
-        <v>0.05604424702842792</v>
+        <v>0.05940732669412796</v>
       </c>
       <c r="E23">
-        <v>0.5039936463995858</v>
+        <v>0.514621661166629</v>
       </c>
       <c r="F23">
-        <v>1.910145990528093</v>
+        <v>1.578421898466971</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.003573394720422618</v>
+        <v>0.003621886768599092</v>
       </c>
       <c r="I23">
-        <v>0.002671925624484928</v>
+        <v>0.003131219567735322</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787806356</v>
       </c>
       <c r="K23">
-        <v>1.041424646436411</v>
+        <v>0.7864837403217848</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2991434266365616</v>
       </c>
       <c r="M23">
-        <v>2.226910985480174</v>
+        <v>0.3024565295208461</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.156288331219173</v>
+        <v>2.120329257059012</v>
       </c>
       <c r="P23">
-        <v>1.449020931075651</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.135170640142732</v>
+      </c>
+      <c r="R23">
+        <v>1.152568363850506</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.475503799485153</v>
+        <v>1.287169220865877</v>
       </c>
       <c r="C24">
-        <v>0.4548016213159087</v>
+        <v>0.5316873891054001</v>
       </c>
       <c r="D24">
-        <v>0.05466888391039326</v>
+        <v>0.0564609175365689</v>
       </c>
       <c r="E24">
-        <v>0.429350674347468</v>
+        <v>0.439224379602237</v>
       </c>
       <c r="F24">
-        <v>1.705072788352624</v>
+        <v>1.423191086201328</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.001145775476297128</v>
+        <v>0.001266378237442467</v>
       </c>
       <c r="I24">
-        <v>0.001200872214104365</v>
+        <v>0.001587651289874259</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.076368825553498</v>
       </c>
       <c r="K24">
-        <v>0.9555586758545331</v>
+        <v>0.7358047912620336</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2959032123709946</v>
       </c>
       <c r="M24">
-        <v>1.899583204168721</v>
+        <v>0.2636261168884531</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.9887109905132974</v>
+        <v>1.813090912648221</v>
       </c>
       <c r="P24">
-        <v>1.440722908392928</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.9719662790077734</v>
+      </c>
+      <c r="R24">
+        <v>1.179028701636533</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.205771069886254</v>
+        <v>1.059599554666676</v>
       </c>
       <c r="C25">
-        <v>0.3692863456921884</v>
+        <v>0.4293824132884936</v>
       </c>
       <c r="D25">
-        <v>0.05303692480341482</v>
+        <v>0.05320847142699847</v>
       </c>
       <c r="E25">
-        <v>0.3500314157625795</v>
+        <v>0.3588855955256349</v>
       </c>
       <c r="F25">
-        <v>1.48929801981059</v>
+        <v>1.259638312100279</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>2.343724479514364E-05</v>
+        <v>6.435844966379278E-05</v>
       </c>
       <c r="I25">
-        <v>0.001585543060814487</v>
+        <v>0.001452819971595964</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.07595196022662787</v>
       </c>
       <c r="K25">
-        <v>0.8648942961789317</v>
+        <v>0.6821234624489705</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.291764053235795</v>
       </c>
       <c r="M25">
-        <v>1.550648097371806</v>
+        <v>0.2252017019867765</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.8095199457193232</v>
+        <v>1.484561713505684</v>
       </c>
       <c r="P25">
-        <v>1.43379179384209</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0.7971655192921858</v>
+      </c>
+      <c r="R25">
+        <v>1.209246168287883</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
